--- a/Conversion_Results.xlsx
+++ b/Conversion_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\Projects\Gators_Conversion_Efficiency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE75827-BB5E-4B9B-8652-6840BED4CC41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4470A5B8-DDE6-4108-948F-1C54CF15E80E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conversion_Results" sheetId="1" r:id="rId1"/>
@@ -533,7 +533,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -765,6 +765,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -810,7 +821,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -828,6 +839,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1186,32 +1198,32 @@
   <dimension ref="A1:AA448"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T265" sqref="T265"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1285,7 +1297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>3</v>
       </c>
@@ -1361,7 +1373,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>3</v>
       </c>
@@ -1437,7 +1449,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1513,7 +1525,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1589,7 +1601,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1665,7 +1677,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -1741,7 +1753,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1817,7 +1829,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>3</v>
       </c>
@@ -1893,7 +1905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>3</v>
       </c>
@@ -1969,7 +1981,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -2045,7 +2057,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>3</v>
       </c>
@@ -2121,7 +2133,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>3</v>
       </c>
@@ -2197,7 +2209,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>4</v>
       </c>
@@ -2273,7 +2285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>3</v>
       </c>
@@ -2349,7 +2361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>3</v>
       </c>
@@ -2407,10 +2419,10 @@
         <v>28</v>
       </c>
       <c r="V16">
-        <v>27.9</v>
+        <v>26</v>
       </c>
       <c r="W16">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="X16">
         <v>3.9</v>
@@ -2425,7 +2437,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -2501,7 +2513,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>4</v>
       </c>
@@ -2559,10 +2571,10 @@
         <v>14</v>
       </c>
       <c r="V18">
-        <v>28.9</v>
+        <v>30.1</v>
       </c>
       <c r="W18">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="X18">
         <v>6.4</v>
@@ -2577,7 +2589,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -2638,7 +2650,7 @@
         <v>27.8</v>
       </c>
       <c r="W19">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="X19">
         <v>4.0999999999999996</v>
@@ -2653,7 +2665,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>3</v>
       </c>
@@ -2729,7 +2741,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>3</v>
       </c>
@@ -2787,10 +2799,10 @@
         <v>33</v>
       </c>
       <c r="V21">
-        <v>33.4</v>
+        <v>33.9</v>
       </c>
       <c r="W21">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="X21">
         <v>4.9000000000000004</v>
@@ -2805,7 +2817,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>3</v>
       </c>
@@ -2863,7 +2875,7 @@
         <v>18</v>
       </c>
       <c r="V22">
-        <v>47.3</v>
+        <v>48.9</v>
       </c>
       <c r="W22">
         <v>1</v>
@@ -2881,7 +2893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>3</v>
       </c>
@@ -2939,10 +2951,10 @@
         <v>23</v>
       </c>
       <c r="V23">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="W23">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="X23">
         <v>4.5</v>
@@ -2957,7 +2969,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>3</v>
       </c>
@@ -3015,10 +3027,10 @@
         <v>20</v>
       </c>
       <c r="V24">
-        <v>33.700000000000003</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="W24">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="X24">
         <v>5.2</v>
@@ -3033,7 +3045,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>3</v>
       </c>
@@ -3091,7 +3103,7 @@
         <v>19</v>
       </c>
       <c r="V25">
-        <v>22.2</v>
+        <v>21.8</v>
       </c>
       <c r="W25">
         <v>104</v>
@@ -3109,7 +3121,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>3</v>
       </c>
@@ -3167,10 +3179,10 @@
         <v>22</v>
       </c>
       <c r="V26">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="W26">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="X26">
         <v>3.8</v>
@@ -3185,7 +3197,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>3</v>
       </c>
@@ -3243,10 +3255,10 @@
         <v>25</v>
       </c>
       <c r="V27">
-        <v>31.5</v>
+        <v>30.2</v>
       </c>
       <c r="W27">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X27">
         <v>3.8</v>
@@ -3261,7 +3273,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>3</v>
       </c>
@@ -3319,10 +3331,10 @@
         <v>40</v>
       </c>
       <c r="V28">
-        <v>29.6</v>
+        <v>30.4</v>
       </c>
       <c r="W28">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="X28">
         <v>3.8</v>
@@ -3337,7 +3349,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>3</v>
       </c>
@@ -3392,7 +3404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>3</v>
       </c>
@@ -3447,7 +3459,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>3</v>
       </c>
@@ -3502,7 +3514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>3</v>
       </c>
@@ -3557,7 +3569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>4</v>
       </c>
@@ -3612,7 +3624,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>3</v>
       </c>
@@ -3667,7 +3679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>3</v>
       </c>
@@ -3722,7 +3734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>4</v>
       </c>
@@ -3777,7 +3789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>3</v>
       </c>
@@ -3832,7 +3844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>3</v>
       </c>
@@ -3887,7 +3899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>3</v>
       </c>
@@ -3942,7 +3954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>3</v>
       </c>
@@ -3997,7 +4009,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>3</v>
       </c>
@@ -4052,7 +4064,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>3</v>
       </c>
@@ -4107,7 +4119,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>3</v>
       </c>
@@ -4162,7 +4174,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>3</v>
       </c>
@@ -4217,7 +4229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>3</v>
       </c>
@@ -4272,7 +4284,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>3</v>
       </c>
@@ -4327,7 +4339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>3</v>
       </c>
@@ -4382,7 +4394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>3</v>
       </c>
@@ -4437,7 +4449,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>3</v>
       </c>
@@ -4492,7 +4504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>3</v>
       </c>
@@ -4547,7 +4559,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>3</v>
       </c>
@@ -4602,7 +4614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>4</v>
       </c>
@@ -4657,7 +4669,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>3</v>
       </c>
@@ -4712,7 +4724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>4</v>
       </c>
@@ -4767,7 +4779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>3</v>
       </c>
@@ -4822,7 +4834,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>3</v>
       </c>
@@ -4877,7 +4889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>4</v>
       </c>
@@ -4932,7 +4944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>3</v>
       </c>
@@ -4987,7 +4999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>3</v>
       </c>
@@ -5042,7 +5054,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>3</v>
       </c>
@@ -5097,7 +5109,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>3</v>
       </c>
@@ -5152,7 +5164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>3</v>
       </c>
@@ -5207,7 +5219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>4</v>
       </c>
@@ -5262,7 +5274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>3</v>
       </c>
@@ -5317,7 +5329,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>3</v>
       </c>
@@ -5372,7 +5384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>3</v>
       </c>
@@ -5427,7 +5439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>4</v>
       </c>
@@ -5482,7 +5494,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>3</v>
       </c>
@@ -5537,7 +5549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>3</v>
       </c>
@@ -5592,7 +5604,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>3</v>
       </c>
@@ -5647,7 +5659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>3</v>
       </c>
@@ -5702,7 +5714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>3</v>
       </c>
@@ -5757,7 +5769,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>3</v>
       </c>
@@ -5812,7 +5824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>3</v>
       </c>
@@ -5867,7 +5879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>3</v>
       </c>
@@ -5922,7 +5934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>3</v>
       </c>
@@ -5977,7 +5989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <v>3</v>
       </c>
@@ -6032,7 +6044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>3</v>
       </c>
@@ -6087,7 +6099,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>3</v>
       </c>
@@ -6142,7 +6154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>3</v>
       </c>
@@ -6197,7 +6209,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>3</v>
       </c>
@@ -6252,7 +6264,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>3</v>
       </c>
@@ -6307,7 +6319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>4</v>
       </c>
@@ -6362,7 +6374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>3</v>
       </c>
@@ -6417,7 +6429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>3</v>
       </c>
@@ -6472,7 +6484,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>3</v>
       </c>
@@ -6527,7 +6539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>3</v>
       </c>
@@ -6582,7 +6594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>3</v>
       </c>
@@ -6637,7 +6649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>3</v>
       </c>
@@ -6692,7 +6704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>3</v>
       </c>
@@ -6747,7 +6759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9">
         <v>4</v>
       </c>
@@ -6802,7 +6814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>3</v>
       </c>
@@ -6857,7 +6869,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>3</v>
       </c>
@@ -6912,7 +6924,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>3</v>
       </c>
@@ -6967,7 +6979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>3</v>
       </c>
@@ -7022,7 +7034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>3</v>
       </c>
@@ -7077,7 +7089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>3</v>
       </c>
@@ -7132,7 +7144,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>3</v>
       </c>
@@ -7187,7 +7199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>3</v>
       </c>
@@ -7242,7 +7254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>3</v>
       </c>
@@ -7297,7 +7309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>3</v>
       </c>
@@ -7352,7 +7364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>3</v>
       </c>
@@ -7407,7 +7419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>3</v>
       </c>
@@ -7462,7 +7474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>3</v>
       </c>
@@ -7517,7 +7529,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>3</v>
       </c>
@@ -7572,7 +7584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>3</v>
       </c>
@@ -7627,7 +7639,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>3</v>
       </c>
@@ -7682,7 +7694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>4</v>
       </c>
@@ -7737,7 +7749,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>3</v>
       </c>
@@ -7792,7 +7804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9">
         <v>4</v>
       </c>
@@ -7847,7 +7859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>3</v>
       </c>
@@ -7902,7 +7914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>3</v>
       </c>
@@ -7957,7 +7969,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>3</v>
       </c>
@@ -8012,7 +8024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>3</v>
       </c>
@@ -8067,7 +8079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>3</v>
       </c>
@@ -8122,7 +8134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>3</v>
       </c>
@@ -8177,7 +8189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>3</v>
       </c>
@@ -8232,7 +8244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>3</v>
       </c>
@@ -8287,7 +8299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>3</v>
       </c>
@@ -8342,7 +8354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>3</v>
       </c>
@@ -8397,7 +8409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>4</v>
       </c>
@@ -8452,7 +8464,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>3</v>
       </c>
@@ -8507,7 +8519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>3</v>
       </c>
@@ -8562,7 +8574,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9">
         <v>3</v>
       </c>
@@ -8617,7 +8629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>3</v>
       </c>
@@ -8672,7 +8684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>3</v>
       </c>
@@ -8727,7 +8739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>3</v>
       </c>
@@ -8782,7 +8794,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>3</v>
       </c>
@@ -8837,7 +8849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>3</v>
       </c>
@@ -8892,7 +8904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>3</v>
       </c>
@@ -8947,7 +8959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>3</v>
       </c>
@@ -9002,7 +9014,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>3</v>
       </c>
@@ -9057,7 +9069,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>3</v>
       </c>
@@ -9112,7 +9124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>3</v>
       </c>
@@ -9167,7 +9179,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>3</v>
       </c>
@@ -9222,7 +9234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>3</v>
       </c>
@@ -9277,7 +9289,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>3</v>
       </c>
@@ -9332,7 +9344,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>3</v>
       </c>
@@ -9387,7 +9399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9">
         <v>3</v>
       </c>
@@ -9442,7 +9454,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>3</v>
       </c>
@@ -9497,7 +9509,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>3</v>
       </c>
@@ -9552,7 +9564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>3</v>
       </c>
@@ -9607,7 +9619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>3</v>
       </c>
@@ -9662,7 +9674,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>3</v>
       </c>
@@ -9717,7 +9729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>3</v>
       </c>
@@ -9772,7 +9784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>3</v>
       </c>
@@ -9827,7 +9839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>3</v>
       </c>
@@ -9882,7 +9894,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>3</v>
       </c>
@@ -9937,7 +9949,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>3</v>
       </c>
@@ -9992,7 +10004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>3</v>
       </c>
@@ -10047,7 +10059,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>3</v>
       </c>
@@ -10102,7 +10114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>3</v>
       </c>
@@ -10157,7 +10169,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>3</v>
       </c>
@@ -10212,7 +10224,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>3</v>
       </c>
@@ -10267,7 +10279,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>3</v>
       </c>
@@ -10322,7 +10334,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>3</v>
       </c>
@@ -10377,7 +10389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10">
         <v>3</v>
       </c>
@@ -10432,7 +10444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>3</v>
       </c>
@@ -10487,7 +10499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>3</v>
       </c>
@@ -10542,7 +10554,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>3</v>
       </c>
@@ -10597,7 +10609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>3</v>
       </c>
@@ -10652,7 +10664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>3</v>
       </c>
@@ -10707,7 +10719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>3</v>
       </c>
@@ -10762,7 +10774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>3</v>
       </c>
@@ -10817,7 +10829,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>3</v>
       </c>
@@ -10872,7 +10884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>3</v>
       </c>
@@ -10927,7 +10939,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>3</v>
       </c>
@@ -10982,7 +10994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>3</v>
       </c>
@@ -11037,7 +11049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="9">
         <v>3</v>
       </c>
@@ -11092,7 +11104,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>3</v>
       </c>
@@ -11147,7 +11159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="13">
         <v>3</v>
       </c>
@@ -11202,7 +11214,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>3</v>
       </c>
@@ -11257,7 +11269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>3</v>
       </c>
@@ -11312,7 +11324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>3</v>
       </c>
@@ -11367,7 +11379,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>3</v>
       </c>
@@ -11422,7 +11434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>4</v>
       </c>
@@ -11477,7 +11489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>3</v>
       </c>
@@ -11532,7 +11544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>3</v>
       </c>
@@ -11587,7 +11599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>3</v>
       </c>
@@ -11642,7 +11654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>3</v>
       </c>
@@ -11697,7 +11709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>3</v>
       </c>
@@ -11752,7 +11764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>3</v>
       </c>
@@ -11807,7 +11819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>3</v>
       </c>
@@ -11862,7 +11874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>4</v>
       </c>
@@ -11917,7 +11929,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>3</v>
       </c>
@@ -11972,7 +11984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>3</v>
       </c>
@@ -12027,7 +12039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>3</v>
       </c>
@@ -12082,7 +12094,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>3</v>
       </c>
@@ -12137,7 +12149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="9">
         <v>4</v>
       </c>
@@ -12192,7 +12204,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>3</v>
       </c>
@@ -12247,7 +12259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>3</v>
       </c>
@@ -12302,7 +12314,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>3</v>
       </c>
@@ -12357,7 +12369,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>3</v>
       </c>
@@ -12412,7 +12424,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>3</v>
       </c>
@@ -12467,7 +12479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>3</v>
       </c>
@@ -12522,7 +12534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>3</v>
       </c>
@@ -12577,7 +12589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>3</v>
       </c>
@@ -12632,7 +12644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>3</v>
       </c>
@@ -12687,7 +12699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>3</v>
       </c>
@@ -12742,7 +12754,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>3</v>
       </c>
@@ -12797,7 +12809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>3</v>
       </c>
@@ -12852,7 +12864,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>3</v>
       </c>
@@ -12907,7 +12919,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>4</v>
       </c>
@@ -12962,7 +12974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>3</v>
       </c>
@@ -13017,7 +13029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>4</v>
       </c>
@@ -13072,7 +13084,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>3</v>
       </c>
@@ -13127,7 +13139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>3</v>
       </c>
@@ -13182,7 +13194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="9">
         <v>4</v>
       </c>
@@ -13237,7 +13249,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>3</v>
       </c>
@@ -13292,7 +13304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" s="13">
         <v>4</v>
       </c>
@@ -13347,7 +13359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" s="13">
         <v>3</v>
       </c>
@@ -13402,7 +13414,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>3</v>
       </c>
@@ -13457,7 +13469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>3</v>
       </c>
@@ -13512,7 +13524,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>3</v>
       </c>
@@ -13567,7 +13579,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>3</v>
       </c>
@@ -13622,7 +13634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>3</v>
       </c>
@@ -13677,7 +13689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>3</v>
       </c>
@@ -13732,7 +13744,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>3</v>
       </c>
@@ -13787,7 +13799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>3</v>
       </c>
@@ -13842,7 +13854,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>3</v>
       </c>
@@ -13897,7 +13909,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>3</v>
       </c>
@@ -13952,7 +13964,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>3</v>
       </c>
@@ -14007,7 +14019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>3</v>
       </c>
@@ -14062,7 +14074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>3</v>
       </c>
@@ -14117,7 +14129,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="9">
         <v>4</v>
       </c>
@@ -14172,7 +14184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>3</v>
       </c>
@@ -14183,10 +14195,10 @@
         <v>1</v>
       </c>
       <c r="D226">
-        <v>27.9</v>
+        <v>26</v>
       </c>
       <c r="E226">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F226">
         <v>3.9</v>
@@ -14202,11 +14214,11 @@
       </c>
       <c r="J226">
         <f t="shared" si="7"/>
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="K226">
         <f t="shared" si="6"/>
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L226" s="11" t="s">
         <v>9</v>
@@ -14227,7 +14239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" s="13">
         <v>3</v>
       </c>
@@ -14238,10 +14250,10 @@
         <v>1</v>
       </c>
       <c r="D227">
-        <v>27.9</v>
+        <v>26</v>
       </c>
       <c r="E227">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F227">
         <v>3.9</v>
@@ -14257,11 +14269,11 @@
       </c>
       <c r="J227">
         <f t="shared" si="7"/>
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="K227">
         <f t="shared" si="6"/>
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L227" s="11" t="s">
         <v>13</v>
@@ -14282,7 +14294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>3</v>
       </c>
@@ -14293,10 +14305,10 @@
         <v>2</v>
       </c>
       <c r="D228">
-        <v>27.9</v>
+        <v>26</v>
       </c>
       <c r="E228">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F228">
         <v>3.9</v>
@@ -14312,11 +14324,11 @@
       </c>
       <c r="J228">
         <f t="shared" si="7"/>
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="K228">
         <f t="shared" si="6"/>
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L228" s="11" t="s">
         <v>13</v>
@@ -14337,7 +14349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>3</v>
       </c>
@@ -14348,10 +14360,10 @@
         <v>2</v>
       </c>
       <c r="D229">
-        <v>27.9</v>
+        <v>26</v>
       </c>
       <c r="E229">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F229">
         <v>3.9</v>
@@ -14367,11 +14379,11 @@
       </c>
       <c r="J229">
         <f t="shared" si="7"/>
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="K229">
         <f t="shared" si="6"/>
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L229" s="11" t="s">
         <v>9</v>
@@ -14392,7 +14404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>3</v>
       </c>
@@ -14403,10 +14415,10 @@
         <v>2</v>
       </c>
       <c r="D230">
-        <v>27.9</v>
+        <v>26</v>
       </c>
       <c r="E230">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F230">
         <v>3.9</v>
@@ -14422,11 +14434,11 @@
       </c>
       <c r="J230">
         <f t="shared" si="7"/>
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="K230">
         <f t="shared" si="6"/>
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L230" s="11" t="s">
         <v>9</v>
@@ -14447,7 +14459,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>3</v>
       </c>
@@ -14458,10 +14470,10 @@
         <v>2</v>
       </c>
       <c r="D231">
-        <v>27.9</v>
+        <v>26</v>
       </c>
       <c r="E231">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F231">
         <v>3.9</v>
@@ -14477,11 +14489,11 @@
       </c>
       <c r="J231">
         <f t="shared" si="7"/>
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="K231">
         <f t="shared" si="6"/>
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L231" s="11" t="s">
         <v>13</v>
@@ -14502,7 +14514,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>3</v>
       </c>
@@ -14513,10 +14525,10 @@
         <v>3</v>
       </c>
       <c r="D232">
-        <v>27.9</v>
+        <v>26</v>
       </c>
       <c r="E232">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F232">
         <v>3.9</v>
@@ -14532,11 +14544,11 @@
       </c>
       <c r="J232">
         <f t="shared" si="7"/>
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="K232">
         <f t="shared" si="6"/>
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L232" s="11" t="s">
         <v>13</v>
@@ -14557,7 +14569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>3</v>
       </c>
@@ -14568,10 +14580,10 @@
         <v>3</v>
       </c>
       <c r="D233">
-        <v>27.9</v>
+        <v>26</v>
       </c>
       <c r="E233">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F233">
         <v>3.9</v>
@@ -14587,11 +14599,11 @@
       </c>
       <c r="J233">
         <f t="shared" si="7"/>
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="K233">
         <f t="shared" si="6"/>
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L233" s="11" t="s">
         <v>13</v>
@@ -14612,7 +14624,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>3</v>
       </c>
@@ -14623,10 +14635,10 @@
         <v>3</v>
       </c>
       <c r="D234">
-        <v>27.9</v>
+        <v>26</v>
       </c>
       <c r="E234">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F234">
         <v>3.9</v>
@@ -14642,11 +14654,11 @@
       </c>
       <c r="J234">
         <f t="shared" si="7"/>
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="K234">
         <f t="shared" si="6"/>
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L234" s="11" t="s">
         <v>9</v>
@@ -14667,7 +14679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>3</v>
       </c>
@@ -14678,10 +14690,10 @@
         <v>4</v>
       </c>
       <c r="D235">
-        <v>27.9</v>
+        <v>26</v>
       </c>
       <c r="E235">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F235">
         <v>3.9</v>
@@ -14697,11 +14709,11 @@
       </c>
       <c r="J235">
         <f t="shared" si="7"/>
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="K235">
         <f t="shared" si="6"/>
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L235" s="11" t="s">
         <v>13</v>
@@ -14722,7 +14734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>3</v>
       </c>
@@ -14733,10 +14745,10 @@
         <v>4</v>
       </c>
       <c r="D236">
-        <v>27.9</v>
+        <v>26</v>
       </c>
       <c r="E236">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F236">
         <v>3.9</v>
@@ -14752,11 +14764,11 @@
       </c>
       <c r="J236">
         <f t="shared" si="7"/>
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="K236">
         <f t="shared" si="6"/>
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L236" s="11" t="s">
         <v>9</v>
@@ -14777,7 +14789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>3</v>
       </c>
@@ -14788,10 +14800,10 @@
         <v>4</v>
       </c>
       <c r="D237">
-        <v>27.9</v>
+        <v>26</v>
       </c>
       <c r="E237">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F237">
         <v>3.9</v>
@@ -14807,11 +14819,11 @@
       </c>
       <c r="J237">
         <f t="shared" si="7"/>
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="K237">
         <f t="shared" si="6"/>
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L237" s="11" t="s">
         <v>9</v>
@@ -14832,7 +14844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>4</v>
       </c>
@@ -14843,10 +14855,10 @@
         <v>4</v>
       </c>
       <c r="D238">
-        <v>27.9</v>
+        <v>26</v>
       </c>
       <c r="E238">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F238">
         <v>3.9</v>
@@ -14862,11 +14874,11 @@
       </c>
       <c r="J238">
         <f t="shared" si="7"/>
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="K238">
         <f t="shared" si="6"/>
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L238" s="11" t="s">
         <v>9</v>
@@ -14887,7 +14899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>3</v>
       </c>
@@ -14898,10 +14910,10 @@
         <v>4</v>
       </c>
       <c r="D239">
-        <v>27.9</v>
+        <v>26</v>
       </c>
       <c r="E239">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F239">
         <v>3.9</v>
@@ -14917,11 +14929,11 @@
       </c>
       <c r="J239">
         <f t="shared" si="7"/>
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="K239">
         <f t="shared" si="6"/>
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L239" s="11" t="s">
         <v>9</v>
@@ -14942,7 +14954,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>4</v>
       </c>
@@ -14953,10 +14965,10 @@
         <v>4</v>
       </c>
       <c r="D240">
-        <v>27.9</v>
+        <v>26</v>
       </c>
       <c r="E240">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F240">
         <v>3.9</v>
@@ -14972,11 +14984,11 @@
       </c>
       <c r="J240">
         <f t="shared" si="7"/>
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="K240">
         <f t="shared" si="6"/>
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L240" s="11" t="s">
         <v>9</v>
@@ -14997,7 +15009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>3</v>
       </c>
@@ -15008,10 +15020,10 @@
         <v>4</v>
       </c>
       <c r="D241">
-        <v>27.9</v>
+        <v>26</v>
       </c>
       <c r="E241">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F241">
         <v>3.9</v>
@@ -15027,11 +15039,11 @@
       </c>
       <c r="J241">
         <f t="shared" si="7"/>
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="K241">
         <f t="shared" si="6"/>
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L241" s="11" t="s">
         <v>9</v>
@@ -15052,7 +15064,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>3</v>
       </c>
@@ -15063,10 +15075,10 @@
         <v>4</v>
       </c>
       <c r="D242">
-        <v>27.9</v>
+        <v>26</v>
       </c>
       <c r="E242">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F242">
         <v>3.9</v>
@@ -15082,11 +15094,11 @@
       </c>
       <c r="J242">
         <f t="shared" si="7"/>
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="K242">
         <f t="shared" si="6"/>
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L242" s="11" t="s">
         <v>9</v>
@@ -15107,7 +15119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="10">
         <v>4</v>
       </c>
@@ -15118,10 +15130,10 @@
         <v>4</v>
       </c>
       <c r="D243" s="3">
-        <v>27.9</v>
+        <v>26</v>
       </c>
       <c r="E243" s="3">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F243" s="3">
         <v>3.9</v>
@@ -15137,11 +15149,11 @@
       </c>
       <c r="J243" s="7">
         <f t="shared" si="7"/>
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="K243" s="3">
         <f t="shared" si="6"/>
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L243" s="15" t="s">
         <v>9</v>
@@ -15162,7 +15174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>3</v>
       </c>
@@ -15217,7 +15229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>3</v>
       </c>
@@ -15272,7 +15284,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246" s="13">
         <v>3</v>
       </c>
@@ -15327,7 +15339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>3</v>
       </c>
@@ -15382,7 +15394,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>3</v>
       </c>
@@ -15437,7 +15449,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>3</v>
       </c>
@@ -15492,7 +15504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>3</v>
       </c>
@@ -15547,7 +15559,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>3</v>
       </c>
@@ -15602,7 +15614,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>3</v>
       </c>
@@ -15657,7 +15669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>3</v>
       </c>
@@ -15712,7 +15724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>3</v>
       </c>
@@ -15767,7 +15779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>3</v>
       </c>
@@ -15822,7 +15834,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>3</v>
       </c>
@@ -15877,7 +15889,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>3</v>
       </c>
@@ -15932,7 +15944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="10">
         <v>3</v>
       </c>
@@ -15987,7 +15999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>3</v>
       </c>
@@ -15998,10 +16010,10 @@
         <v>1</v>
       </c>
       <c r="D259">
-        <v>28.9</v>
+        <v>30.1</v>
       </c>
       <c r="E259">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F259">
         <v>6.4</v>
@@ -16017,11 +16029,11 @@
       </c>
       <c r="J259">
         <f t="shared" ref="J259:J322" si="9">E259+G259</f>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K259">
         <f t="shared" si="8"/>
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="L259" s="11" t="s">
         <v>13</v>
@@ -16042,7 +16054,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>3</v>
       </c>
@@ -16053,10 +16065,10 @@
         <v>1</v>
       </c>
       <c r="D260">
-        <v>28.9</v>
+        <v>30.1</v>
       </c>
       <c r="E260">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F260">
         <v>6.4</v>
@@ -16072,11 +16084,11 @@
       </c>
       <c r="J260">
         <f t="shared" si="9"/>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K260">
         <f t="shared" si="8"/>
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="L260" s="11" t="s">
         <v>9</v>
@@ -16097,7 +16109,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>3</v>
       </c>
@@ -16108,10 +16120,10 @@
         <v>1</v>
       </c>
       <c r="D261">
-        <v>28.9</v>
+        <v>30.1</v>
       </c>
       <c r="E261">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F261">
         <v>6.4</v>
@@ -16127,11 +16139,11 @@
       </c>
       <c r="J261">
         <f t="shared" si="9"/>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K261">
         <f t="shared" si="8"/>
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="L261" s="11" t="s">
         <v>9</v>
@@ -16152,7 +16164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" s="13">
         <v>3</v>
       </c>
@@ -16163,10 +16175,10 @@
         <v>2</v>
       </c>
       <c r="D262">
-        <v>28.9</v>
+        <v>30.1</v>
       </c>
       <c r="E262">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F262">
         <v>6.4</v>
@@ -16182,11 +16194,11 @@
       </c>
       <c r="J262">
         <f t="shared" si="9"/>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K262">
         <f t="shared" si="8"/>
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="L262" s="11" t="s">
         <v>9</v>
@@ -16207,7 +16219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>3</v>
       </c>
@@ -16218,10 +16230,10 @@
         <v>2</v>
       </c>
       <c r="D263">
-        <v>28.9</v>
+        <v>30.1</v>
       </c>
       <c r="E263">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F263">
         <v>6.4</v>
@@ -16237,11 +16249,11 @@
       </c>
       <c r="J263">
         <f t="shared" si="9"/>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K263">
         <f t="shared" si="8"/>
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="L263" s="11" t="s">
         <v>13</v>
@@ -16262,7 +16274,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>3</v>
       </c>
@@ -16273,10 +16285,10 @@
         <v>2</v>
       </c>
       <c r="D264">
-        <v>28.9</v>
+        <v>30.1</v>
       </c>
       <c r="E264">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F264">
         <v>6.4</v>
@@ -16292,11 +16304,11 @@
       </c>
       <c r="J264">
         <f t="shared" si="9"/>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K264">
         <f t="shared" si="8"/>
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="L264" s="11" t="s">
         <v>9</v>
@@ -16317,7 +16329,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>3</v>
       </c>
@@ -16328,10 +16340,10 @@
         <v>2</v>
       </c>
       <c r="D265">
-        <v>28.9</v>
+        <v>30.1</v>
       </c>
       <c r="E265">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F265">
         <v>6.4</v>
@@ -16347,11 +16359,11 @@
       </c>
       <c r="J265">
         <f t="shared" si="9"/>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K265">
         <f t="shared" si="8"/>
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="L265" s="11" t="s">
         <v>9</v>
@@ -16372,7 +16384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>3</v>
       </c>
@@ -16383,10 +16395,10 @@
         <v>3</v>
       </c>
       <c r="D266">
-        <v>28.9</v>
+        <v>30.1</v>
       </c>
       <c r="E266">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F266">
         <v>6.4</v>
@@ -16402,11 +16414,11 @@
       </c>
       <c r="J266">
         <f t="shared" si="9"/>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K266">
         <f t="shared" si="8"/>
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="L266" s="11" t="s">
         <v>13</v>
@@ -16427,7 +16439,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>3</v>
       </c>
@@ -16438,10 +16450,10 @@
         <v>3</v>
       </c>
       <c r="D267">
-        <v>28.9</v>
+        <v>30.1</v>
       </c>
       <c r="E267">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F267">
         <v>6.4</v>
@@ -16457,11 +16469,11 @@
       </c>
       <c r="J267">
         <f t="shared" si="9"/>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K267">
         <f t="shared" si="8"/>
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="L267" s="11" t="s">
         <v>13</v>
@@ -16482,7 +16494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>3</v>
       </c>
@@ -16493,10 +16505,10 @@
         <v>3</v>
       </c>
       <c r="D268">
-        <v>28.9</v>
+        <v>30.1</v>
       </c>
       <c r="E268">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F268">
         <v>6.4</v>
@@ -16512,11 +16524,11 @@
       </c>
       <c r="J268">
         <f t="shared" si="9"/>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K268">
         <f t="shared" si="8"/>
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="L268" s="11" t="s">
         <v>9</v>
@@ -16537,7 +16549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>3</v>
       </c>
@@ -16548,10 +16560,10 @@
         <v>3</v>
       </c>
       <c r="D269">
-        <v>28.9</v>
+        <v>30.1</v>
       </c>
       <c r="E269">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F269">
         <v>6.4</v>
@@ -16567,11 +16579,11 @@
       </c>
       <c r="J269">
         <f t="shared" si="9"/>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K269">
         <f t="shared" si="8"/>
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="L269" s="11" t="s">
         <v>13</v>
@@ -16592,7 +16604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>4</v>
       </c>
@@ -16603,10 +16615,10 @@
         <v>4</v>
       </c>
       <c r="D270">
-        <v>28.9</v>
+        <v>30.1</v>
       </c>
       <c r="E270">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F270">
         <v>6.4</v>
@@ -16622,11 +16634,11 @@
       </c>
       <c r="J270">
         <f t="shared" si="9"/>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K270">
         <f t="shared" si="8"/>
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="L270" s="11" t="s">
         <v>13</v>
@@ -16647,7 +16659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>3</v>
       </c>
@@ -16658,10 +16670,10 @@
         <v>4</v>
       </c>
       <c r="D271">
-        <v>28.9</v>
+        <v>30.1</v>
       </c>
       <c r="E271">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F271">
         <v>6.4</v>
@@ -16677,11 +16689,11 @@
       </c>
       <c r="J271">
         <f t="shared" si="9"/>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K271">
         <f t="shared" si="8"/>
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="L271" s="11" t="s">
         <v>9</v>
@@ -16702,7 +16714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>3</v>
       </c>
@@ -16713,10 +16725,10 @@
         <v>4</v>
       </c>
       <c r="D272">
-        <v>28.9</v>
+        <v>30.1</v>
       </c>
       <c r="E272">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F272">
         <v>6.4</v>
@@ -16732,11 +16744,11 @@
       </c>
       <c r="J272">
         <f t="shared" si="9"/>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K272">
         <f t="shared" si="8"/>
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="L272" s="11" t="s">
         <v>13</v>
@@ -16757,7 +16769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>3</v>
       </c>
@@ -16768,10 +16780,10 @@
         <v>4</v>
       </c>
       <c r="D273">
-        <v>28.9</v>
+        <v>30.1</v>
       </c>
       <c r="E273">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F273">
         <v>6.4</v>
@@ -16787,11 +16799,11 @@
       </c>
       <c r="J273">
         <f t="shared" si="9"/>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K273">
         <f t="shared" si="8"/>
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="L273" s="11" t="s">
         <v>9</v>
@@ -16812,7 +16824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>4</v>
       </c>
@@ -16823,10 +16835,10 @@
         <v>4</v>
       </c>
       <c r="D274">
-        <v>28.9</v>
+        <v>30.1</v>
       </c>
       <c r="E274">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F274">
         <v>6.4</v>
@@ -16842,11 +16854,11 @@
       </c>
       <c r="J274">
         <f t="shared" si="9"/>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K274">
         <f t="shared" si="8"/>
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="L274" s="11" t="s">
         <v>9</v>
@@ -16867,7 +16879,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="275" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="10">
         <v>3</v>
       </c>
@@ -16878,10 +16890,10 @@
         <v>4</v>
       </c>
       <c r="D275" s="3">
-        <v>28.9</v>
+        <v>30.1</v>
       </c>
       <c r="E275" s="3">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F275" s="3">
         <v>6.4</v>
@@ -16897,11 +16909,11 @@
       </c>
       <c r="J275" s="7">
         <f t="shared" si="9"/>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K275" s="3">
         <f t="shared" si="8"/>
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="L275" s="15" t="s">
         <v>9</v>
@@ -16922,7 +16934,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="276" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>3</v>
       </c>
@@ -16936,7 +16948,7 @@
         <v>27.8</v>
       </c>
       <c r="E276">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F276">
         <v>4.0999999999999996</v>
@@ -16952,11 +16964,11 @@
       </c>
       <c r="J276">
         <f t="shared" si="9"/>
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K276">
         <f t="shared" si="8"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L276" s="11" t="s">
         <v>9</v>
@@ -16977,7 +16989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>3</v>
       </c>
@@ -16991,7 +17003,7 @@
         <v>27.8</v>
       </c>
       <c r="E277">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F277">
         <v>4.0999999999999996</v>
@@ -17007,11 +17019,11 @@
       </c>
       <c r="J277">
         <f t="shared" si="9"/>
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K277">
         <f t="shared" si="8"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L277" s="11" t="s">
         <v>9</v>
@@ -17032,7 +17044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278" s="13">
         <v>3</v>
       </c>
@@ -17046,7 +17058,7 @@
         <v>27.8</v>
       </c>
       <c r="E278">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F278">
         <v>4.0999999999999996</v>
@@ -17062,11 +17074,11 @@
       </c>
       <c r="J278">
         <f t="shared" si="9"/>
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K278">
         <f t="shared" si="8"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L278" s="11" t="s">
         <v>9</v>
@@ -17087,7 +17099,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>3</v>
       </c>
@@ -17101,7 +17113,7 @@
         <v>27.8</v>
       </c>
       <c r="E279">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F279">
         <v>4.0999999999999996</v>
@@ -17117,11 +17129,11 @@
       </c>
       <c r="J279">
         <f t="shared" si="9"/>
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K279">
         <f t="shared" si="8"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L279" s="11" t="s">
         <v>9</v>
@@ -17142,7 +17154,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>3</v>
       </c>
@@ -17156,7 +17168,7 @@
         <v>27.8</v>
       </c>
       <c r="E280">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F280">
         <v>4.0999999999999996</v>
@@ -17172,11 +17184,11 @@
       </c>
       <c r="J280">
         <f t="shared" si="9"/>
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K280">
         <f t="shared" si="8"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L280" s="11" t="s">
         <v>9</v>
@@ -17197,7 +17209,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>3</v>
       </c>
@@ -17211,7 +17223,7 @@
         <v>27.8</v>
       </c>
       <c r="E281">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F281">
         <v>4.0999999999999996</v>
@@ -17227,11 +17239,11 @@
       </c>
       <c r="J281">
         <f t="shared" si="9"/>
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K281">
         <f t="shared" si="8"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L281" s="11" t="s">
         <v>13</v>
@@ -17252,7 +17264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>3</v>
       </c>
@@ -17266,7 +17278,7 @@
         <v>27.8</v>
       </c>
       <c r="E282">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F282">
         <v>4.0999999999999996</v>
@@ -17282,11 +17294,11 @@
       </c>
       <c r="J282">
         <f t="shared" si="9"/>
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K282">
         <f t="shared" si="8"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L282" s="11" t="s">
         <v>9</v>
@@ -17307,7 +17319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <v>3</v>
       </c>
@@ -17321,7 +17333,7 @@
         <v>27.8</v>
       </c>
       <c r="E283">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F283">
         <v>4.0999999999999996</v>
@@ -17337,11 +17349,11 @@
       </c>
       <c r="J283">
         <f t="shared" si="9"/>
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K283">
         <f t="shared" si="8"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L283" s="11" t="s">
         <v>9</v>
@@ -17362,7 +17374,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <v>3</v>
       </c>
@@ -17376,7 +17388,7 @@
         <v>27.8</v>
       </c>
       <c r="E284">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F284">
         <v>4.0999999999999996</v>
@@ -17392,11 +17404,11 @@
       </c>
       <c r="J284">
         <f t="shared" si="9"/>
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K284">
         <f t="shared" si="8"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L284" s="11" t="s">
         <v>9</v>
@@ -17417,7 +17429,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <v>3</v>
       </c>
@@ -17431,7 +17443,7 @@
         <v>27.8</v>
       </c>
       <c r="E285">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F285">
         <v>4.0999999999999996</v>
@@ -17447,11 +17459,11 @@
       </c>
       <c r="J285">
         <f t="shared" si="9"/>
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K285">
         <f t="shared" si="8"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L285" s="11" t="s">
         <v>9</v>
@@ -17472,7 +17484,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <v>3</v>
       </c>
@@ -17486,7 +17498,7 @@
         <v>27.8</v>
       </c>
       <c r="E286">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F286">
         <v>4.0999999999999996</v>
@@ -17502,11 +17514,11 @@
       </c>
       <c r="J286">
         <f t="shared" si="9"/>
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K286">
         <f t="shared" si="8"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L286" s="11" t="s">
         <v>13</v>
@@ -17527,7 +17539,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <v>3</v>
       </c>
@@ -17541,7 +17553,7 @@
         <v>27.8</v>
       </c>
       <c r="E287">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F287">
         <v>4.0999999999999996</v>
@@ -17557,11 +17569,11 @@
       </c>
       <c r="J287">
         <f t="shared" si="9"/>
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K287">
         <f t="shared" si="8"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L287" s="11" t="s">
         <v>9</v>
@@ -17582,62 +17594,62 @@
         <v>11</v>
       </c>
     </row>
-    <row r="288" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A288" s="9">
-        <v>3</v>
-      </c>
-      <c r="B288" s="12">
+    <row r="288" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="3">
+        <v>3</v>
+      </c>
+      <c r="B288" s="3">
         <v>28</v>
       </c>
-      <c r="C288" s="12">
-        <v>4</v>
-      </c>
-      <c r="D288" s="7">
+      <c r="C288" s="3">
+        <v>4</v>
+      </c>
+      <c r="D288" s="3">
         <v>27.8</v>
       </c>
-      <c r="E288" s="7">
-        <v>75</v>
-      </c>
-      <c r="F288" s="7">
+      <c r="E288" s="3">
+        <v>73</v>
+      </c>
+      <c r="F288" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G288" s="7">
+      <c r="G288" s="3">
         <v>82</v>
       </c>
-      <c r="H288" s="7">
+      <c r="H288" s="3">
         <v>8.1</v>
       </c>
-      <c r="I288" s="7">
+      <c r="I288" s="3">
         <v>34</v>
       </c>
-      <c r="J288" s="7">
+      <c r="J288" s="3">
         <f t="shared" si="9"/>
-        <v>157</v>
-      </c>
-      <c r="K288" s="7">
+        <v>155</v>
+      </c>
+      <c r="K288" s="3">
         <f t="shared" si="8"/>
-        <v>109</v>
-      </c>
-      <c r="L288" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="M288" s="12">
+        <v>107</v>
+      </c>
+      <c r="L288" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M288" s="3">
         <v>5</v>
       </c>
-      <c r="N288" s="12">
+      <c r="N288" s="3">
         <v>70</v>
       </c>
-      <c r="O288" s="12">
+      <c r="O288" s="3">
         <v>-1</v>
       </c>
-      <c r="P288" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q288" s="8" t="s">
+      <c r="P288" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q288" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>3</v>
       </c>
@@ -17692,7 +17704,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290" s="13">
         <v>3</v>
       </c>
@@ -17747,7 +17759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <v>3</v>
       </c>
@@ -17802,7 +17814,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <v>3</v>
       </c>
@@ -17857,7 +17869,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <v>3</v>
       </c>
@@ -17912,7 +17924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <v>3</v>
       </c>
@@ -17967,7 +17979,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <v>3</v>
       </c>
@@ -18022,7 +18034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <v>3</v>
       </c>
@@ -18077,7 +18089,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <v>3</v>
       </c>
@@ -18132,7 +18144,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <v>3</v>
       </c>
@@ -18187,7 +18199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <v>3</v>
       </c>
@@ -18242,7 +18254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <v>3</v>
       </c>
@@ -18297,7 +18309,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <v>3</v>
       </c>
@@ -18352,62 +18364,62 @@
         <v>11</v>
       </c>
     </row>
-    <row r="302" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A302" s="9">
-        <v>3</v>
-      </c>
-      <c r="B302" s="12">
+    <row r="302" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="3">
+        <v>3</v>
+      </c>
+      <c r="B302" s="3">
         <v>38</v>
       </c>
-      <c r="C302" s="12">
-        <v>4</v>
-      </c>
-      <c r="D302" s="7">
+      <c r="C302" s="3">
+        <v>4</v>
+      </c>
+      <c r="D302" s="3">
         <v>13</v>
       </c>
-      <c r="E302" s="7">
+      <c r="E302" s="3">
         <v>125</v>
       </c>
-      <c r="F302" s="7">
+      <c r="F302" s="3">
         <v>4.7</v>
       </c>
-      <c r="G302" s="7">
+      <c r="G302" s="3">
         <v>49</v>
       </c>
-      <c r="H302" s="7">
+      <c r="H302" s="3">
         <v>7.9</v>
       </c>
-      <c r="I302" s="7">
+      <c r="I302" s="3">
         <v>42</v>
       </c>
-      <c r="J302" s="7">
+      <c r="J302" s="3">
         <f t="shared" si="9"/>
         <v>174</v>
       </c>
-      <c r="K302" s="7">
+      <c r="K302" s="3">
         <f t="shared" si="8"/>
         <v>167</v>
       </c>
-      <c r="L302" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="M302" s="12">
+      <c r="L302" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M302" s="3">
         <v>7</v>
       </c>
-      <c r="N302" s="12">
+      <c r="N302" s="3">
         <v>55</v>
       </c>
-      <c r="O302" s="12">
+      <c r="O302" s="3">
         <v>11</v>
       </c>
-      <c r="P302" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q302" s="8" t="s">
+      <c r="P302" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q302" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <v>3</v>
       </c>
@@ -18418,10 +18430,10 @@
         <v>1</v>
       </c>
       <c r="D303">
-        <v>33.4</v>
+        <v>33.9</v>
       </c>
       <c r="E303">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F303">
         <v>4.9000000000000004</v>
@@ -18437,11 +18449,11 @@
       </c>
       <c r="J303">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K303">
         <f t="shared" si="8"/>
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L303" s="11" t="s">
         <v>9</v>
@@ -18462,7 +18474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A304" s="13">
         <v>3</v>
       </c>
@@ -18473,10 +18485,10 @@
         <v>1</v>
       </c>
       <c r="D304">
-        <v>33.4</v>
+        <v>33.9</v>
       </c>
       <c r="E304">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F304">
         <v>4.9000000000000004</v>
@@ -18492,11 +18504,11 @@
       </c>
       <c r="J304">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K304">
         <f t="shared" si="8"/>
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L304" s="11" t="s">
         <v>13</v>
@@ -18517,7 +18529,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <v>3</v>
       </c>
@@ -18528,10 +18540,10 @@
         <v>1</v>
       </c>
       <c r="D305">
-        <v>33.4</v>
+        <v>33.9</v>
       </c>
       <c r="E305">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F305">
         <v>4.9000000000000004</v>
@@ -18547,11 +18559,11 @@
       </c>
       <c r="J305">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K305">
         <f t="shared" si="8"/>
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L305" s="11" t="s">
         <v>9</v>
@@ -18572,7 +18584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <v>3</v>
       </c>
@@ -18583,10 +18595,10 @@
         <v>1</v>
       </c>
       <c r="D306">
-        <v>33.4</v>
+        <v>33.9</v>
       </c>
       <c r="E306">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F306">
         <v>4.9000000000000004</v>
@@ -18602,11 +18614,11 @@
       </c>
       <c r="J306">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K306">
         <f t="shared" si="8"/>
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L306" s="11" t="s">
         <v>9</v>
@@ -18627,7 +18639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <v>3</v>
       </c>
@@ -18638,10 +18650,10 @@
         <v>1</v>
       </c>
       <c r="D307">
-        <v>33.4</v>
+        <v>33.9</v>
       </c>
       <c r="E307">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F307">
         <v>4.9000000000000004</v>
@@ -18657,11 +18669,11 @@
       </c>
       <c r="J307">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K307">
         <f t="shared" si="8"/>
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L307" s="11" t="s">
         <v>13</v>
@@ -18682,7 +18694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <v>3</v>
       </c>
@@ -18693,10 +18705,10 @@
         <v>2</v>
       </c>
       <c r="D308">
-        <v>33.4</v>
+        <v>33.9</v>
       </c>
       <c r="E308">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F308">
         <v>4.9000000000000004</v>
@@ -18712,11 +18724,11 @@
       </c>
       <c r="J308">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K308">
         <f t="shared" si="8"/>
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L308" s="11" t="s">
         <v>13</v>
@@ -18737,7 +18749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <v>3</v>
       </c>
@@ -18748,10 +18760,10 @@
         <v>2</v>
       </c>
       <c r="D309">
-        <v>33.4</v>
+        <v>33.9</v>
       </c>
       <c r="E309">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F309">
         <v>4.9000000000000004</v>
@@ -18767,11 +18779,11 @@
       </c>
       <c r="J309">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K309">
         <f t="shared" si="8"/>
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L309" s="11" t="s">
         <v>13</v>
@@ -18792,7 +18804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <v>3</v>
       </c>
@@ -18803,10 +18815,10 @@
         <v>2</v>
       </c>
       <c r="D310">
-        <v>33.4</v>
+        <v>33.9</v>
       </c>
       <c r="E310">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F310">
         <v>4.9000000000000004</v>
@@ -18822,11 +18834,11 @@
       </c>
       <c r="J310">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K310">
         <f t="shared" si="8"/>
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L310" s="11" t="s">
         <v>9</v>
@@ -18847,7 +18859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <v>3</v>
       </c>
@@ -18858,10 +18870,10 @@
         <v>2</v>
       </c>
       <c r="D311">
-        <v>33.4</v>
+        <v>33.9</v>
       </c>
       <c r="E311">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F311">
         <v>4.9000000000000004</v>
@@ -18877,11 +18889,11 @@
       </c>
       <c r="J311">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K311">
         <f t="shared" si="8"/>
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L311" s="11" t="s">
         <v>13</v>
@@ -18902,7 +18914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <v>3</v>
       </c>
@@ -18913,10 +18925,10 @@
         <v>3</v>
       </c>
       <c r="D312">
-        <v>33.4</v>
+        <v>33.9</v>
       </c>
       <c r="E312">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F312">
         <v>4.9000000000000004</v>
@@ -18932,11 +18944,11 @@
       </c>
       <c r="J312">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K312">
         <f t="shared" si="8"/>
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L312" s="11" t="s">
         <v>9</v>
@@ -18957,7 +18969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <v>3</v>
       </c>
@@ -18968,10 +18980,10 @@
         <v>3</v>
       </c>
       <c r="D313">
-        <v>33.4</v>
+        <v>33.9</v>
       </c>
       <c r="E313">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F313">
         <v>4.9000000000000004</v>
@@ -18987,11 +18999,11 @@
       </c>
       <c r="J313">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K313">
         <f t="shared" si="8"/>
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L313" s="11" t="s">
         <v>9</v>
@@ -19012,7 +19024,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <v>3</v>
       </c>
@@ -19023,10 +19035,10 @@
         <v>4</v>
       </c>
       <c r="D314">
-        <v>33.4</v>
+        <v>33.9</v>
       </c>
       <c r="E314">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F314">
         <v>4.9000000000000004</v>
@@ -19042,11 +19054,11 @@
       </c>
       <c r="J314">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K314">
         <f t="shared" si="8"/>
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L314" s="11" t="s">
         <v>9</v>
@@ -19067,7 +19079,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <v>3</v>
       </c>
@@ -19078,10 +19090,10 @@
         <v>4</v>
       </c>
       <c r="D315">
-        <v>33.4</v>
+        <v>33.9</v>
       </c>
       <c r="E315">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F315">
         <v>4.9000000000000004</v>
@@ -19097,11 +19109,11 @@
       </c>
       <c r="J315">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K315">
         <f t="shared" si="8"/>
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L315" s="11" t="s">
         <v>13</v>
@@ -19122,7 +19134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <v>3</v>
       </c>
@@ -19133,10 +19145,10 @@
         <v>4</v>
       </c>
       <c r="D316">
-        <v>33.4</v>
+        <v>33.9</v>
       </c>
       <c r="E316">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F316">
         <v>4.9000000000000004</v>
@@ -19152,11 +19164,11 @@
       </c>
       <c r="J316">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K316">
         <f t="shared" si="8"/>
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L316" s="11" t="s">
         <v>9</v>
@@ -19177,62 +19189,62 @@
         <v>11</v>
       </c>
     </row>
-    <row r="317" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A317" s="9">
-        <v>4</v>
-      </c>
-      <c r="B317" s="12">
+    <row r="317" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="3">
+        <v>4</v>
+      </c>
+      <c r="B317" s="3">
         <v>11</v>
       </c>
-      <c r="C317" s="12">
-        <v>4</v>
-      </c>
-      <c r="D317" s="7">
-        <v>33.4</v>
-      </c>
-      <c r="E317" s="7">
-        <v>38</v>
-      </c>
-      <c r="F317" s="7">
+      <c r="C317" s="3">
+        <v>4</v>
+      </c>
+      <c r="D317" s="3">
+        <v>33.9</v>
+      </c>
+      <c r="E317" s="3">
+        <v>34</v>
+      </c>
+      <c r="F317" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G317" s="7">
+      <c r="G317" s="3">
         <v>32</v>
       </c>
-      <c r="H317" s="7">
+      <c r="H317" s="3">
         <v>6.7</v>
       </c>
-      <c r="I317" s="7">
+      <c r="I317" s="3">
         <v>96</v>
       </c>
-      <c r="J317" s="7">
+      <c r="J317" s="3">
         <f t="shared" si="9"/>
-        <v>70</v>
-      </c>
-      <c r="K317" s="7">
+        <v>66</v>
+      </c>
+      <c r="K317" s="3">
         <f t="shared" si="8"/>
-        <v>134</v>
-      </c>
-      <c r="L317" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="L317" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M317" s="12">
+      <c r="M317" s="3">
         <v>12</v>
       </c>
-      <c r="N317" s="12">
+      <c r="N317" s="3">
         <v>55</v>
       </c>
-      <c r="O317" s="12">
+      <c r="O317" s="3">
         <v>6</v>
       </c>
-      <c r="P317" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q317" s="8" t="s">
+      <c r="P317" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q317" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <v>3</v>
       </c>
@@ -19243,7 +19255,7 @@
         <v>1</v>
       </c>
       <c r="D318">
-        <v>47.3</v>
+        <v>48.9</v>
       </c>
       <c r="E318">
         <v>1</v>
@@ -19283,11 +19295,11 @@
       <c r="P318" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Q318" s="5" t="s">
+      <c r="Q318" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <v>3</v>
       </c>
@@ -19298,7 +19310,7 @@
         <v>1</v>
       </c>
       <c r="D319">
-        <v>47.3</v>
+        <v>48.9</v>
       </c>
       <c r="E319">
         <v>1</v>
@@ -19342,7 +19354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <v>3</v>
       </c>
@@ -19353,7 +19365,7 @@
         <v>3</v>
       </c>
       <c r="D320">
-        <v>47.3</v>
+        <v>48.9</v>
       </c>
       <c r="E320">
         <v>1</v>
@@ -19397,62 +19409,62 @@
         <v>21</v>
       </c>
     </row>
-    <row r="321" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A321" s="9">
-        <v>3</v>
-      </c>
-      <c r="B321" s="12">
+    <row r="321" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="3">
+        <v>3</v>
+      </c>
+      <c r="B321" s="3">
         <v>-7</v>
       </c>
-      <c r="C321" s="12">
-        <v>4</v>
-      </c>
-      <c r="D321" s="7">
-        <v>47.3</v>
-      </c>
-      <c r="E321" s="7">
+      <c r="C321" s="3">
+        <v>4</v>
+      </c>
+      <c r="D321" s="3">
+        <v>48.9</v>
+      </c>
+      <c r="E321" s="3">
         <v>1</v>
       </c>
-      <c r="F321" s="7">
+      <c r="F321" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G321" s="7">
+      <c r="G321" s="3">
         <v>29</v>
       </c>
-      <c r="H321" s="7">
+      <c r="H321" s="3">
         <v>10.3</v>
       </c>
-      <c r="I321" s="7">
+      <c r="I321" s="3">
         <v>6</v>
       </c>
-      <c r="J321" s="7">
+      <c r="J321" s="3">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="K321" s="7">
+      <c r="K321" s="3">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="L321" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M321" s="12">
+      <c r="L321" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M321" s="3">
         <v>8</v>
       </c>
-      <c r="N321" s="12">
+      <c r="N321" s="3">
         <v>40</v>
       </c>
-      <c r="O321" s="12">
+      <c r="O321" s="3">
         <v>5</v>
       </c>
-      <c r="P321" s="12" t="s">
+      <c r="P321" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q321" s="8" t="s">
+      <c r="Q321" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <v>3</v>
       </c>
@@ -19463,10 +19475,10 @@
         <v>1</v>
       </c>
       <c r="D322">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="E322">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F322">
         <v>4.5</v>
@@ -19482,11 +19494,11 @@
       </c>
       <c r="J322">
         <f t="shared" si="9"/>
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K322">
         <f t="shared" ref="K322:K360" si="10">E322+I322</f>
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L322" s="11" t="s">
         <v>9</v>
@@ -19507,7 +19519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A323" s="13">
         <v>3</v>
       </c>
@@ -19518,10 +19530,10 @@
         <v>1</v>
       </c>
       <c r="D323">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="E323">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F323">
         <v>4.5</v>
@@ -19537,11 +19549,11 @@
       </c>
       <c r="J323">
         <f t="shared" ref="J323:J376" si="11">E323+G323</f>
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K323">
         <f t="shared" si="10"/>
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L323" s="11" t="s">
         <v>13</v>
@@ -19562,7 +19574,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <v>3</v>
       </c>
@@ -19573,10 +19585,10 @@
         <v>1</v>
       </c>
       <c r="D324">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="E324">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F324">
         <v>4.5</v>
@@ -19592,11 +19604,11 @@
       </c>
       <c r="J324">
         <f t="shared" si="11"/>
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K324">
         <f t="shared" si="10"/>
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L324" s="11" t="s">
         <v>13</v>
@@ -19617,7 +19629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <v>3</v>
       </c>
@@ -19628,10 +19640,10 @@
         <v>1</v>
       </c>
       <c r="D325">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="E325">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F325">
         <v>4.5</v>
@@ -19647,11 +19659,11 @@
       </c>
       <c r="J325">
         <f t="shared" si="11"/>
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K325">
         <f t="shared" si="10"/>
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L325" s="11" t="s">
         <v>9</v>
@@ -19672,7 +19684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <v>3</v>
       </c>
@@ -19683,10 +19695,10 @@
         <v>1</v>
       </c>
       <c r="D326">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="E326">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F326">
         <v>4.5</v>
@@ -19702,11 +19714,11 @@
       </c>
       <c r="J326">
         <f t="shared" si="11"/>
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K326">
         <f t="shared" si="10"/>
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L326" s="11" t="s">
         <v>9</v>
@@ -19727,7 +19739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <v>3</v>
       </c>
@@ -19738,10 +19750,10 @@
         <v>2</v>
       </c>
       <c r="D327">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="E327">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F327">
         <v>4.5</v>
@@ -19757,11 +19769,11 @@
       </c>
       <c r="J327">
         <f t="shared" si="11"/>
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K327">
         <f t="shared" si="10"/>
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L327" s="11" t="s">
         <v>13</v>
@@ -19782,7 +19794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <v>3</v>
       </c>
@@ -19793,10 +19805,10 @@
         <v>2</v>
       </c>
       <c r="D328">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="E328">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F328">
         <v>4.5</v>
@@ -19812,11 +19824,11 @@
       </c>
       <c r="J328">
         <f t="shared" si="11"/>
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K328">
         <f t="shared" si="10"/>
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L328" s="11" t="s">
         <v>9</v>
@@ -19837,7 +19849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <v>3</v>
       </c>
@@ -19848,10 +19860,10 @@
         <v>2</v>
       </c>
       <c r="D329">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="E329">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F329">
         <v>4.5</v>
@@ -19867,11 +19879,11 @@
       </c>
       <c r="J329">
         <f t="shared" si="11"/>
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K329">
         <f t="shared" si="10"/>
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L329" s="11" t="s">
         <v>9</v>
@@ -19892,7 +19904,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <v>3</v>
       </c>
@@ -19903,10 +19915,10 @@
         <v>2</v>
       </c>
       <c r="D330">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="E330">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F330">
         <v>4.5</v>
@@ -19922,11 +19934,11 @@
       </c>
       <c r="J330">
         <f t="shared" si="11"/>
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K330">
         <f t="shared" si="10"/>
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L330" s="11" t="s">
         <v>9</v>
@@ -19947,7 +19959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <v>3</v>
       </c>
@@ -19958,10 +19970,10 @@
         <v>3</v>
       </c>
       <c r="D331">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="E331">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F331">
         <v>4.5</v>
@@ -19977,11 +19989,11 @@
       </c>
       <c r="J331">
         <f t="shared" si="11"/>
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K331">
         <f t="shared" si="10"/>
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L331" s="11" t="s">
         <v>13</v>
@@ -20002,7 +20014,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <v>3</v>
       </c>
@@ -20013,10 +20025,10 @@
         <v>3</v>
       </c>
       <c r="D332">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="E332">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F332">
         <v>4.5</v>
@@ -20032,11 +20044,11 @@
       </c>
       <c r="J332">
         <f t="shared" si="11"/>
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K332">
         <f t="shared" si="10"/>
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L332" s="11" t="s">
         <v>9</v>
@@ -20057,7 +20069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <v>3</v>
       </c>
@@ -20068,10 +20080,10 @@
         <v>3</v>
       </c>
       <c r="D333">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="E333">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F333">
         <v>4.5</v>
@@ -20087,11 +20099,11 @@
       </c>
       <c r="J333">
         <f t="shared" si="11"/>
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K333">
         <f t="shared" si="10"/>
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L333" s="11" t="s">
         <v>13</v>
@@ -20112,7 +20124,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <v>3</v>
       </c>
@@ -20123,10 +20135,10 @@
         <v>3</v>
       </c>
       <c r="D334">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="E334">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F334">
         <v>4.5</v>
@@ -20142,11 +20154,11 @@
       </c>
       <c r="J334">
         <f t="shared" si="11"/>
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K334">
         <f t="shared" si="10"/>
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L334" s="11" t="s">
         <v>13</v>
@@ -20167,7 +20179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <v>3</v>
       </c>
@@ -20178,10 +20190,10 @@
         <v>4</v>
       </c>
       <c r="D335">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="E335">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F335">
         <v>4.5</v>
@@ -20197,11 +20209,11 @@
       </c>
       <c r="J335">
         <f t="shared" si="11"/>
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K335">
         <f t="shared" si="10"/>
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L335" s="11" t="s">
         <v>9</v>
@@ -20222,7 +20234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <v>3</v>
       </c>
@@ -20233,10 +20245,10 @@
         <v>4</v>
       </c>
       <c r="D336">
-        <v>23.8</v>
-      </c>
-      <c r="E336">
-        <v>94</v>
+        <v>23.4</v>
+      </c>
+      <c r="E336" s="16">
+        <v>98</v>
       </c>
       <c r="F336">
         <v>4.5</v>
@@ -20252,11 +20264,11 @@
       </c>
       <c r="J336">
         <f t="shared" si="11"/>
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K336">
         <f t="shared" si="10"/>
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L336" s="11" t="s">
         <v>9</v>
@@ -20277,7 +20289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <v>4</v>
       </c>
@@ -20288,10 +20300,10 @@
         <v>4</v>
       </c>
       <c r="D337">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="E337">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F337">
         <v>4.5</v>
@@ -20307,11 +20319,11 @@
       </c>
       <c r="J337">
         <f t="shared" si="11"/>
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K337">
         <f t="shared" si="10"/>
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L337" s="11" t="s">
         <v>9</v>
@@ -20332,7 +20344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <v>3</v>
       </c>
@@ -20343,10 +20355,10 @@
         <v>4</v>
       </c>
       <c r="D338">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="E338">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F338">
         <v>4.5</v>
@@ -20362,11 +20374,11 @@
       </c>
       <c r="J338">
         <f t="shared" si="11"/>
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K338">
         <f t="shared" si="10"/>
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L338" s="11" t="s">
         <v>13</v>
@@ -20387,7 +20399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <v>3</v>
       </c>
@@ -20398,10 +20410,10 @@
         <v>4</v>
       </c>
       <c r="D339">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="E339">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F339">
         <v>4.5</v>
@@ -20417,11 +20429,11 @@
       </c>
       <c r="J339">
         <f t="shared" si="11"/>
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K339">
         <f t="shared" si="10"/>
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L339" s="11" t="s">
         <v>9</v>
@@ -20442,7 +20454,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <v>3</v>
       </c>
@@ -20453,10 +20465,10 @@
         <v>4</v>
       </c>
       <c r="D340">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="E340">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F340">
         <v>4.5</v>
@@ -20472,11 +20484,11 @@
       </c>
       <c r="J340">
         <f t="shared" si="11"/>
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K340">
         <f t="shared" si="10"/>
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L340" s="11" t="s">
         <v>9</v>
@@ -20497,21 +20509,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="341" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A341" s="9">
-        <v>4</v>
-      </c>
-      <c r="B341" s="12">
+    <row r="341" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="7">
+        <v>4</v>
+      </c>
+      <c r="B341" s="7">
         <v>11</v>
       </c>
-      <c r="C341" s="12">
+      <c r="C341" s="7">
         <v>4</v>
       </c>
       <c r="D341" s="7">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="E341" s="7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F341" s="7">
         <v>4.5</v>
@@ -20527,32 +20539,32 @@
       </c>
       <c r="J341" s="7">
         <f t="shared" si="11"/>
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K341" s="7">
         <f t="shared" si="10"/>
-        <v>219</v>
-      </c>
-      <c r="L341" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="M341" s="12">
+        <v>223</v>
+      </c>
+      <c r="L341" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M341" s="7">
         <v>5</v>
       </c>
-      <c r="N341" s="12">
+      <c r="N341" s="7">
         <v>45</v>
       </c>
-      <c r="O341" s="12">
+      <c r="O341" s="7">
         <v>0</v>
       </c>
-      <c r="P341" s="12" t="s">
+      <c r="P341" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q341" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <v>3</v>
       </c>
@@ -20563,10 +20575,10 @@
         <v>1</v>
       </c>
       <c r="D342">
-        <v>33.700000000000003</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="E342">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F342">
         <v>5.2</v>
@@ -20582,11 +20594,11 @@
       </c>
       <c r="J342">
         <f t="shared" si="11"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K342">
         <f t="shared" si="10"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L342" s="11" t="s">
         <v>9</v>
@@ -20607,7 +20619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A343" s="13">
         <v>3</v>
       </c>
@@ -20618,10 +20630,10 @@
         <v>1</v>
       </c>
       <c r="D343">
-        <v>33.700000000000003</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="E343">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F343">
         <v>5.2</v>
@@ -20637,11 +20649,11 @@
       </c>
       <c r="J343">
         <f t="shared" si="11"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K343">
         <f t="shared" si="10"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L343" s="11" t="s">
         <v>9</v>
@@ -20662,7 +20674,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <v>3</v>
       </c>
@@ -20673,10 +20685,10 @@
         <v>1</v>
       </c>
       <c r="D344">
-        <v>33.700000000000003</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="E344">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F344">
         <v>5.2</v>
@@ -20692,11 +20704,11 @@
       </c>
       <c r="J344">
         <f t="shared" si="11"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K344">
         <f t="shared" si="10"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L344" s="11" t="s">
         <v>13</v>
@@ -20717,7 +20729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <v>3</v>
       </c>
@@ -20728,10 +20740,10 @@
         <v>1</v>
       </c>
       <c r="D345">
-        <v>33.700000000000003</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="E345">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F345">
         <v>5.2</v>
@@ -20747,11 +20759,11 @@
       </c>
       <c r="J345">
         <f t="shared" si="11"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K345">
         <f t="shared" si="10"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L345" s="11" t="s">
         <v>9</v>
@@ -20772,7 +20784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <v>3</v>
       </c>
@@ -20783,10 +20795,10 @@
         <v>1</v>
       </c>
       <c r="D346">
-        <v>33.700000000000003</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="E346">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F346">
         <v>5.2</v>
@@ -20802,11 +20814,11 @@
       </c>
       <c r="J346">
         <f t="shared" si="11"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K346">
         <f t="shared" si="10"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L346" s="11" t="s">
         <v>9</v>
@@ -20827,7 +20839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <v>3</v>
       </c>
@@ -20838,10 +20850,10 @@
         <v>2</v>
       </c>
       <c r="D347">
-        <v>33.700000000000003</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="E347">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F347">
         <v>5.2</v>
@@ -20857,11 +20869,11 @@
       </c>
       <c r="J347">
         <f t="shared" si="11"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K347">
         <f t="shared" si="10"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L347" s="11" t="s">
         <v>9</v>
@@ -20882,7 +20894,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <v>3</v>
       </c>
@@ -20893,10 +20905,10 @@
         <v>2</v>
       </c>
       <c r="D348">
-        <v>33.700000000000003</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="E348">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F348">
         <v>5.2</v>
@@ -20912,11 +20924,11 @@
       </c>
       <c r="J348">
         <f t="shared" si="11"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K348">
         <f t="shared" si="10"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L348" t="s">
         <v>9</v>
@@ -20937,7 +20949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <v>3</v>
       </c>
@@ -20948,10 +20960,10 @@
         <v>2</v>
       </c>
       <c r="D349">
-        <v>33.700000000000003</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="E349">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F349">
         <v>5.2</v>
@@ -20967,11 +20979,11 @@
       </c>
       <c r="J349">
         <f t="shared" si="11"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K349">
         <f t="shared" si="10"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L349" t="s">
         <v>9</v>
@@ -20992,7 +21004,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <v>3</v>
       </c>
@@ -21003,10 +21015,10 @@
         <v>2</v>
       </c>
       <c r="D350">
-        <v>33.700000000000003</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="E350">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F350">
         <v>5.2</v>
@@ -21022,11 +21034,11 @@
       </c>
       <c r="J350">
         <f t="shared" si="11"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K350">
         <f t="shared" si="10"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L350" t="s">
         <v>9</v>
@@ -21047,7 +21059,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <v>3</v>
       </c>
@@ -21058,10 +21070,10 @@
         <v>2</v>
       </c>
       <c r="D351">
-        <v>33.700000000000003</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="E351">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F351">
         <v>5.2</v>
@@ -21077,11 +21089,11 @@
       </c>
       <c r="J351">
         <f t="shared" si="11"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K351">
         <f t="shared" si="10"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L351" t="s">
         <v>9</v>
@@ -21102,7 +21114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <v>3</v>
       </c>
@@ -21113,10 +21125,10 @@
         <v>2</v>
       </c>
       <c r="D352">
-        <v>33.700000000000003</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="E352">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F352">
         <v>5.2</v>
@@ -21132,11 +21144,11 @@
       </c>
       <c r="J352">
         <f t="shared" si="11"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K352">
         <f t="shared" si="10"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L352" t="s">
         <v>9</v>
@@ -21157,7 +21169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <v>3</v>
       </c>
@@ -21168,10 +21180,10 @@
         <v>3</v>
       </c>
       <c r="D353">
-        <v>33.700000000000003</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="E353">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F353">
         <v>5.2</v>
@@ -21187,11 +21199,11 @@
       </c>
       <c r="J353">
         <f t="shared" si="11"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K353">
         <f t="shared" si="10"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L353" t="s">
         <v>9</v>
@@ -21212,7 +21224,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <v>3</v>
       </c>
@@ -21223,10 +21235,10 @@
         <v>3</v>
       </c>
       <c r="D354">
-        <v>33.700000000000003</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="E354">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F354">
         <v>5.2</v>
@@ -21242,11 +21254,11 @@
       </c>
       <c r="J354">
         <f t="shared" si="11"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K354">
         <f t="shared" si="10"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L354" t="s">
         <v>9</v>
@@ -21267,7 +21279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <v>3</v>
       </c>
@@ -21278,10 +21290,10 @@
         <v>3</v>
       </c>
       <c r="D355">
-        <v>33.700000000000003</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="E355">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F355">
         <v>5.2</v>
@@ -21297,11 +21309,11 @@
       </c>
       <c r="J355">
         <f t="shared" si="11"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K355">
         <f t="shared" si="10"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L355" t="s">
         <v>13</v>
@@ -21322,7 +21334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
         <v>3</v>
       </c>
@@ -21333,10 +21345,10 @@
         <v>4</v>
       </c>
       <c r="D356">
-        <v>33.700000000000003</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="E356">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F356">
         <v>5.2</v>
@@ -21352,11 +21364,11 @@
       </c>
       <c r="J356">
         <f t="shared" si="11"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K356">
         <f t="shared" si="10"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L356" t="s">
         <v>13</v>
@@ -21377,7 +21389,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <v>3</v>
       </c>
@@ -21388,10 +21400,10 @@
         <v>4</v>
       </c>
       <c r="D357">
-        <v>33.700000000000003</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="E357">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F357">
         <v>5.2</v>
@@ -21407,11 +21419,11 @@
       </c>
       <c r="J357">
         <f t="shared" si="11"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K357">
         <f t="shared" si="10"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L357" t="s">
         <v>13</v>
@@ -21432,7 +21444,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <v>3</v>
       </c>
@@ -21443,10 +21455,10 @@
         <v>4</v>
       </c>
       <c r="D358">
-        <v>33.700000000000003</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="E358">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F358">
         <v>5.2</v>
@@ -21462,11 +21474,11 @@
       </c>
       <c r="J358">
         <f t="shared" si="11"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K358">
         <f t="shared" si="10"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L358" t="s">
         <v>9</v>
@@ -21487,7 +21499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="359" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="9">
         <v>3</v>
       </c>
@@ -21498,10 +21510,10 @@
         <v>4</v>
       </c>
       <c r="D359" s="7">
-        <v>33.700000000000003</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="E359" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F359" s="7">
         <v>5.2</v>
@@ -21517,11 +21529,11 @@
       </c>
       <c r="J359" s="7">
         <f t="shared" si="11"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K359" s="7">
         <f t="shared" si="10"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L359" s="7" t="s">
         <v>13</v>
@@ -21542,7 +21554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <v>3</v>
       </c>
@@ -21553,7 +21565,7 @@
         <v>1</v>
       </c>
       <c r="D360">
-        <v>22.2</v>
+        <v>21.8</v>
       </c>
       <c r="E360">
         <v>104</v>
@@ -21597,7 +21609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <v>3</v>
       </c>
@@ -21608,7 +21620,7 @@
         <v>1</v>
       </c>
       <c r="D361">
-        <v>22.2</v>
+        <v>21.8</v>
       </c>
       <c r="E361">
         <v>104</v>
@@ -21652,7 +21664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <v>3</v>
       </c>
@@ -21663,7 +21675,7 @@
         <v>2</v>
       </c>
       <c r="D362">
-        <v>22.2</v>
+        <v>21.8</v>
       </c>
       <c r="E362">
         <v>104</v>
@@ -21707,7 +21719,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <v>3</v>
       </c>
@@ -21718,7 +21730,7 @@
         <v>2</v>
       </c>
       <c r="D363">
-        <v>22.2</v>
+        <v>21.8</v>
       </c>
       <c r="E363">
         <v>104</v>
@@ -21762,7 +21774,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <v>3</v>
       </c>
@@ -21773,7 +21785,7 @@
         <v>2</v>
       </c>
       <c r="D364">
-        <v>22.2</v>
+        <v>21.8</v>
       </c>
       <c r="E364">
         <v>104</v>
@@ -21817,7 +21829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <v>3</v>
       </c>
@@ -21828,7 +21840,7 @@
         <v>2</v>
       </c>
       <c r="D365">
-        <v>22.2</v>
+        <v>21.8</v>
       </c>
       <c r="E365">
         <v>104</v>
@@ -21872,7 +21884,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <v>3</v>
       </c>
@@ -21883,7 +21895,7 @@
         <v>3</v>
       </c>
       <c r="D366">
-        <v>22.2</v>
+        <v>21.8</v>
       </c>
       <c r="E366">
         <v>104</v>
@@ -21927,7 +21939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <v>3</v>
       </c>
@@ -21938,7 +21950,7 @@
         <v>3</v>
       </c>
       <c r="D367">
-        <v>22.2</v>
+        <v>21.8</v>
       </c>
       <c r="E367">
         <v>104</v>
@@ -21982,7 +21994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <v>3</v>
       </c>
@@ -21993,7 +22005,7 @@
         <v>3</v>
       </c>
       <c r="D368">
-        <v>22.2</v>
+        <v>21.8</v>
       </c>
       <c r="E368">
         <v>104</v>
@@ -22037,7 +22049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <v>3</v>
       </c>
@@ -22048,7 +22060,7 @@
         <v>3</v>
       </c>
       <c r="D369">
-        <v>22.2</v>
+        <v>21.8</v>
       </c>
       <c r="E369">
         <v>104</v>
@@ -22092,7 +22104,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
         <v>3</v>
       </c>
@@ -22103,7 +22115,7 @@
         <v>3</v>
       </c>
       <c r="D370">
-        <v>22.2</v>
+        <v>21.8</v>
       </c>
       <c r="E370">
         <v>104</v>
@@ -22147,7 +22159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <v>3</v>
       </c>
@@ -22158,7 +22170,7 @@
         <v>3</v>
       </c>
       <c r="D371">
-        <v>22.2</v>
+        <v>21.8</v>
       </c>
       <c r="E371">
         <v>104</v>
@@ -22202,7 +22214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <v>3</v>
       </c>
@@ -22213,7 +22225,7 @@
         <v>4</v>
       </c>
       <c r="D372">
-        <v>22.2</v>
+        <v>21.8</v>
       </c>
       <c r="E372">
         <v>104</v>
@@ -22257,7 +22269,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <v>3</v>
       </c>
@@ -22268,7 +22280,7 @@
         <v>4</v>
       </c>
       <c r="D373">
-        <v>22.2</v>
+        <v>21.8</v>
       </c>
       <c r="E373">
         <v>104</v>
@@ -22312,7 +22324,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <v>3</v>
       </c>
@@ -22323,7 +22335,7 @@
         <v>4</v>
       </c>
       <c r="D374">
-        <v>22.2</v>
+        <v>21.8</v>
       </c>
       <c r="E374">
         <v>104</v>
@@ -22367,7 +22379,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="375" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="9">
         <v>3</v>
       </c>
@@ -22378,7 +22390,7 @@
         <v>4</v>
       </c>
       <c r="D375" s="7">
-        <v>22.2</v>
+        <v>21.8</v>
       </c>
       <c r="E375" s="7">
         <v>104</v>
@@ -22422,7 +22434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A376" s="4">
         <v>3</v>
       </c>
@@ -22433,10 +22445,10 @@
         <v>1</v>
       </c>
       <c r="D376">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="E376">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F376">
         <v>3.8</v>
@@ -22452,11 +22464,11 @@
       </c>
       <c r="J376">
         <f t="shared" si="11"/>
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K376">
         <f>E376+I376</f>
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L376" s="11" t="s">
         <v>9</v>
@@ -22477,7 +22489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A377" s="4">
         <v>3</v>
       </c>
@@ -22488,10 +22500,10 @@
         <v>1</v>
       </c>
       <c r="D377">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="E377">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F377">
         <v>3.8</v>
@@ -22507,11 +22519,11 @@
       </c>
       <c r="J377">
         <f t="shared" ref="J377:J392" si="14">E377+G377</f>
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K377">
         <f t="shared" ref="K377:K392" si="15">E377+I377</f>
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L377" s="11" t="s">
         <v>13</v>
@@ -22532,7 +22544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A378" s="4">
         <v>3</v>
       </c>
@@ -22543,10 +22555,10 @@
         <v>1</v>
       </c>
       <c r="D378">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="E378">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F378">
         <v>3.8</v>
@@ -22562,11 +22574,11 @@
       </c>
       <c r="J378">
         <f t="shared" si="14"/>
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K378">
         <f t="shared" si="15"/>
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L378" s="11" t="s">
         <v>13</v>
@@ -22587,7 +22599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A379" s="4">
         <v>3</v>
       </c>
@@ -22598,10 +22610,10 @@
         <v>1</v>
       </c>
       <c r="D379">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="E379">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F379">
         <v>3.8</v>
@@ -22617,11 +22629,11 @@
       </c>
       <c r="J379">
         <f t="shared" si="14"/>
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K379">
         <f t="shared" si="15"/>
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L379" s="11" t="s">
         <v>9</v>
@@ -22642,7 +22654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A380" s="4">
         <v>3</v>
       </c>
@@ -22653,10 +22665,10 @@
         <v>2</v>
       </c>
       <c r="D380">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="E380">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F380">
         <v>3.8</v>
@@ -22672,11 +22684,11 @@
       </c>
       <c r="J380">
         <f t="shared" si="14"/>
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K380">
         <f t="shared" si="15"/>
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L380" s="11" t="s">
         <v>9</v>
@@ -22697,7 +22709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A381" s="4">
         <v>3</v>
       </c>
@@ -22708,10 +22720,10 @@
         <v>2</v>
       </c>
       <c r="D381">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="E381">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F381">
         <v>3.8</v>
@@ -22727,11 +22739,11 @@
       </c>
       <c r="J381">
         <f t="shared" si="14"/>
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K381">
         <f t="shared" si="15"/>
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L381" s="11" t="s">
         <v>9</v>
@@ -22752,7 +22764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A382" s="4">
         <v>3</v>
       </c>
@@ -22763,10 +22775,10 @@
         <v>2</v>
       </c>
       <c r="D382">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="E382">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F382">
         <v>3.8</v>
@@ -22782,11 +22794,11 @@
       </c>
       <c r="J382">
         <f t="shared" si="14"/>
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K382">
         <f t="shared" si="15"/>
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L382" s="11" t="s">
         <v>13</v>
@@ -22807,7 +22819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A383" s="4">
         <v>3</v>
       </c>
@@ -22818,10 +22830,10 @@
         <v>3</v>
       </c>
       <c r="D383">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="E383">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F383">
         <v>3.8</v>
@@ -22837,11 +22849,11 @@
       </c>
       <c r="J383">
         <f t="shared" si="14"/>
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K383">
         <f t="shared" si="15"/>
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L383" s="11" t="s">
         <v>13</v>
@@ -22862,7 +22874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A384" s="4">
         <v>3</v>
       </c>
@@ -22873,10 +22885,10 @@
         <v>3</v>
       </c>
       <c r="D384">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="E384">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F384">
         <v>3.8</v>
@@ -22892,11 +22904,11 @@
       </c>
       <c r="J384">
         <f t="shared" si="14"/>
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K384">
         <f t="shared" si="15"/>
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L384" s="11" t="s">
         <v>9</v>
@@ -22917,7 +22929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A385" s="4">
         <v>3</v>
       </c>
@@ -22928,10 +22940,10 @@
         <v>3</v>
       </c>
       <c r="D385">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="E385">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F385">
         <v>3.8</v>
@@ -22947,11 +22959,11 @@
       </c>
       <c r="J385">
         <f t="shared" si="14"/>
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K385">
         <f t="shared" si="15"/>
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L385" s="11" t="s">
         <v>9</v>
@@ -22972,7 +22984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A386" s="4">
         <v>3</v>
       </c>
@@ -22983,10 +22995,10 @@
         <v>3</v>
       </c>
       <c r="D386">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="E386">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F386">
         <v>3.8</v>
@@ -23002,11 +23014,11 @@
       </c>
       <c r="J386">
         <f t="shared" si="14"/>
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K386">
         <f t="shared" si="15"/>
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L386" s="11" t="s">
         <v>9</v>
@@ -23027,7 +23039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A387" s="4">
         <v>3</v>
       </c>
@@ -23038,10 +23050,10 @@
         <v>3</v>
       </c>
       <c r="D387">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="E387">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F387">
         <v>3.8</v>
@@ -23057,11 +23069,11 @@
       </c>
       <c r="J387">
         <f t="shared" si="14"/>
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K387">
         <f t="shared" si="15"/>
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L387" s="11" t="s">
         <v>13</v>
@@ -23082,7 +23094,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A388" s="4">
         <v>3</v>
       </c>
@@ -23093,10 +23105,10 @@
         <v>4</v>
       </c>
       <c r="D388">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="E388">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F388">
         <v>3.8</v>
@@ -23112,11 +23124,11 @@
       </c>
       <c r="J388">
         <f t="shared" si="14"/>
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K388">
         <f t="shared" si="15"/>
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L388" s="11" t="s">
         <v>13</v>
@@ -23137,7 +23149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A389" s="4">
         <v>3</v>
       </c>
@@ -23148,10 +23160,10 @@
         <v>4</v>
       </c>
       <c r="D389">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="E389">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F389">
         <v>3.8</v>
@@ -23167,11 +23179,11 @@
       </c>
       <c r="J389">
         <f t="shared" si="14"/>
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K389">
         <f t="shared" si="15"/>
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L389" s="11" t="s">
         <v>9</v>
@@ -23192,7 +23204,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A390" s="4">
         <v>3</v>
       </c>
@@ -23203,10 +23215,10 @@
         <v>4</v>
       </c>
       <c r="D390">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="E390">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F390">
         <v>3.8</v>
@@ -23222,11 +23234,11 @@
       </c>
       <c r="J390">
         <f t="shared" si="14"/>
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K390">
         <f t="shared" si="15"/>
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L390" s="11" t="s">
         <v>13</v>
@@ -23247,7 +23259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A391" s="4">
         <v>3</v>
       </c>
@@ -23258,10 +23270,10 @@
         <v>4</v>
       </c>
       <c r="D391">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="E391">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F391">
         <v>3.8</v>
@@ -23277,11 +23289,11 @@
       </c>
       <c r="J391">
         <f t="shared" si="14"/>
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K391">
         <f t="shared" si="15"/>
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L391" s="11" t="s">
         <v>9</v>
@@ -23302,7 +23314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A392" s="4">
         <v>3</v>
       </c>
@@ -23313,10 +23325,10 @@
         <v>4</v>
       </c>
       <c r="D392">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="E392">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F392">
         <v>3.8</v>
@@ -23332,11 +23344,11 @@
       </c>
       <c r="J392">
         <f t="shared" si="14"/>
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K392">
         <f t="shared" si="15"/>
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L392" s="11" t="s">
         <v>13</v>
@@ -23357,7 +23369,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="393" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="9">
         <v>3</v>
       </c>
@@ -23368,10 +23380,10 @@
         <v>4</v>
       </c>
       <c r="D393" s="7">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="E393" s="7">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F393" s="7">
         <v>3.8</v>
@@ -23387,11 +23399,11 @@
       </c>
       <c r="J393" s="7">
         <f t="shared" ref="J393" si="16">E393+G393</f>
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K393" s="7">
         <f t="shared" ref="K393" si="17">E393+I393</f>
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L393" s="12" t="s">
         <v>9</v>
@@ -23412,7 +23424,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A394" s="4">
         <v>3</v>
       </c>
@@ -23423,10 +23435,10 @@
         <v>1</v>
       </c>
       <c r="D394">
-        <v>31.5</v>
+        <v>30.2</v>
       </c>
       <c r="E394">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F394">
         <v>3.8</v>
@@ -23442,11 +23454,11 @@
       </c>
       <c r="J394">
         <f t="shared" ref="J394:J422" si="18">E394+G394</f>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K394">
         <f>E394+I394</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L394" s="11" t="s">
         <v>13</v>
@@ -23467,7 +23479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A395" s="4">
         <v>4</v>
       </c>
@@ -23478,10 +23490,10 @@
         <v>1</v>
       </c>
       <c r="D395">
-        <v>31.5</v>
+        <v>30.2</v>
       </c>
       <c r="E395">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F395">
         <v>3.8</v>
@@ -23497,11 +23509,11 @@
       </c>
       <c r="J395">
         <f t="shared" ref="J395:J410" si="19">E395+G395</f>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K395">
         <f t="shared" ref="K395:K410" si="20">E395+I395</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L395" s="11" t="s">
         <v>13</v>
@@ -23522,7 +23534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A396" s="4">
         <v>3</v>
       </c>
@@ -23533,10 +23545,10 @@
         <v>1</v>
       </c>
       <c r="D396">
-        <v>31.5</v>
+        <v>30.2</v>
       </c>
       <c r="E396">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F396">
         <v>3.8</v>
@@ -23552,11 +23564,11 @@
       </c>
       <c r="J396">
         <f t="shared" si="19"/>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K396">
         <f t="shared" si="20"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L396" s="11" t="s">
         <v>13</v>
@@ -23577,7 +23589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A397" s="4">
         <v>3</v>
       </c>
@@ -23588,10 +23600,10 @@
         <v>2</v>
       </c>
       <c r="D397">
-        <v>31.5</v>
+        <v>30.2</v>
       </c>
       <c r="E397">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F397">
         <v>3.8</v>
@@ -23607,11 +23619,11 @@
       </c>
       <c r="J397">
         <f t="shared" si="19"/>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K397">
         <f t="shared" si="20"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L397" s="11" t="s">
         <v>13</v>
@@ -23632,7 +23644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A398" s="4">
         <v>3</v>
       </c>
@@ -23643,10 +23655,10 @@
         <v>2</v>
       </c>
       <c r="D398">
-        <v>31.5</v>
+        <v>30.2</v>
       </c>
       <c r="E398">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F398">
         <v>3.8</v>
@@ -23662,11 +23674,11 @@
       </c>
       <c r="J398">
         <f t="shared" si="19"/>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K398">
         <f t="shared" si="20"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L398" s="11" t="s">
         <v>9</v>
@@ -23687,7 +23699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A399" s="4">
         <v>3</v>
       </c>
@@ -23698,10 +23710,10 @@
         <v>2</v>
       </c>
       <c r="D399">
-        <v>31.5</v>
+        <v>30.2</v>
       </c>
       <c r="E399">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F399">
         <v>3.8</v>
@@ -23717,11 +23729,11 @@
       </c>
       <c r="J399">
         <f t="shared" si="19"/>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K399">
         <f t="shared" si="20"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L399" s="11" t="s">
         <v>9</v>
@@ -23742,7 +23754,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A400" s="4">
         <v>3</v>
       </c>
@@ -23753,10 +23765,10 @@
         <v>2</v>
       </c>
       <c r="D400">
-        <v>31.5</v>
+        <v>30.2</v>
       </c>
       <c r="E400">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F400">
         <v>3.8</v>
@@ -23772,11 +23784,11 @@
       </c>
       <c r="J400">
         <f t="shared" si="19"/>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K400">
         <f t="shared" si="20"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L400" s="11" t="s">
         <v>13</v>
@@ -23797,7 +23809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A401" s="4">
         <v>3</v>
       </c>
@@ -23808,10 +23820,10 @@
         <v>2</v>
       </c>
       <c r="D401">
-        <v>31.5</v>
+        <v>30.2</v>
       </c>
       <c r="E401">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F401">
         <v>3.8</v>
@@ -23827,11 +23839,11 @@
       </c>
       <c r="J401">
         <f t="shared" si="19"/>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K401">
         <f t="shared" si="20"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L401" s="11" t="s">
         <v>9</v>
@@ -23852,7 +23864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A402" s="4">
         <v>3</v>
       </c>
@@ -23863,10 +23875,10 @@
         <v>3</v>
       </c>
       <c r="D402">
-        <v>31.5</v>
+        <v>30.2</v>
       </c>
       <c r="E402">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F402">
         <v>3.8</v>
@@ -23882,11 +23894,11 @@
       </c>
       <c r="J402">
         <f t="shared" si="19"/>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K402">
         <f t="shared" si="20"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L402" s="11" t="s">
         <v>9</v>
@@ -23907,7 +23919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A403" s="4">
         <v>3</v>
       </c>
@@ -23918,10 +23930,10 @@
         <v>3</v>
       </c>
       <c r="D403">
-        <v>31.5</v>
+        <v>30.2</v>
       </c>
       <c r="E403">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F403">
         <v>3.8</v>
@@ -23937,11 +23949,11 @@
       </c>
       <c r="J403">
         <f t="shared" si="19"/>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K403">
         <f t="shared" si="20"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L403" s="11" t="s">
         <v>9</v>
@@ -23962,7 +23974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A404" s="4">
         <v>3</v>
       </c>
@@ -23973,10 +23985,10 @@
         <v>4</v>
       </c>
       <c r="D404">
-        <v>31.5</v>
+        <v>30.2</v>
       </c>
       <c r="E404">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F404">
         <v>3.8</v>
@@ -23992,11 +24004,11 @@
       </c>
       <c r="J404">
         <f t="shared" si="19"/>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K404">
         <f t="shared" si="20"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L404" s="11" t="s">
         <v>13</v>
@@ -24017,7 +24029,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A405" s="4">
         <v>3</v>
       </c>
@@ -24028,10 +24040,10 @@
         <v>4</v>
       </c>
       <c r="D405">
-        <v>31.5</v>
+        <v>30.2</v>
       </c>
       <c r="E405">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F405">
         <v>3.8</v>
@@ -24047,11 +24059,11 @@
       </c>
       <c r="J405">
         <f t="shared" si="19"/>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K405">
         <f t="shared" si="20"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L405" s="11" t="s">
         <v>9</v>
@@ -24072,7 +24084,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A406" s="4">
         <v>3</v>
       </c>
@@ -24083,10 +24095,10 @@
         <v>4</v>
       </c>
       <c r="D406">
-        <v>31.5</v>
+        <v>30.2</v>
       </c>
       <c r="E406">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F406">
         <v>3.8</v>
@@ -24102,11 +24114,11 @@
       </c>
       <c r="J406">
         <f t="shared" si="19"/>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K406">
         <f t="shared" si="20"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L406" t="s">
         <v>13</v>
@@ -24127,7 +24139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A407" s="4">
         <v>3</v>
       </c>
@@ -24138,10 +24150,10 @@
         <v>4</v>
       </c>
       <c r="D407">
-        <v>31.5</v>
+        <v>30.2</v>
       </c>
       <c r="E407">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F407">
         <v>3.8</v>
@@ -24157,11 +24169,11 @@
       </c>
       <c r="J407">
         <f t="shared" si="19"/>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K407">
         <f t="shared" si="20"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L407" t="s">
         <v>9</v>
@@ -24182,7 +24194,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="408" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="9">
         <v>3</v>
       </c>
@@ -24193,10 +24205,10 @@
         <v>4</v>
       </c>
       <c r="D408" s="7">
-        <v>31.5</v>
+        <v>30.2</v>
       </c>
       <c r="E408" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F408" s="7">
         <v>3.8</v>
@@ -24212,11 +24224,11 @@
       </c>
       <c r="J408" s="7">
         <f t="shared" si="19"/>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K408" s="7">
         <f t="shared" si="20"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L408" s="7" t="s">
         <v>9</v>
@@ -24237,7 +24249,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A409" s="4">
         <v>3</v>
       </c>
@@ -24248,10 +24260,10 @@
         <v>1</v>
       </c>
       <c r="D409">
-        <v>29.6</v>
+        <v>30.4</v>
       </c>
       <c r="E409">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F409">
         <v>3.8</v>
@@ -24267,11 +24279,11 @@
       </c>
       <c r="J409">
         <f t="shared" si="19"/>
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K409">
         <f t="shared" si="20"/>
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="L409" s="11" t="s">
         <v>13</v>
@@ -24292,7 +24304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A410" s="4">
         <v>3</v>
       </c>
@@ -24303,10 +24315,10 @@
         <v>1</v>
       </c>
       <c r="D410">
-        <v>29.6</v>
+        <v>30.4</v>
       </c>
       <c r="E410">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F410">
         <v>3.8</v>
@@ -24322,11 +24334,11 @@
       </c>
       <c r="J410">
         <f t="shared" si="19"/>
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K410">
         <f t="shared" si="20"/>
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="L410" s="11" t="s">
         <v>13</v>
@@ -24347,7 +24359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A411" s="4">
         <v>4</v>
       </c>
@@ -24358,10 +24370,10 @@
         <v>1</v>
       </c>
       <c r="D411">
-        <v>29.6</v>
+        <v>30.4</v>
       </c>
       <c r="E411">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F411">
         <v>3.8</v>
@@ -24377,11 +24389,11 @@
       </c>
       <c r="J411">
         <f t="shared" si="18"/>
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K411">
         <f t="shared" ref="K411:K422" si="21">E411+I411</f>
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="L411" s="11" t="s">
         <v>9</v>
@@ -24402,7 +24414,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A412" s="4">
         <v>3</v>
       </c>
@@ -24413,10 +24425,10 @@
         <v>1</v>
       </c>
       <c r="D412">
-        <v>29.6</v>
+        <v>30.4</v>
       </c>
       <c r="E412">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F412">
         <v>3.8</v>
@@ -24432,11 +24444,11 @@
       </c>
       <c r="J412">
         <f t="shared" si="18"/>
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K412">
         <f t="shared" si="21"/>
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="L412" s="11" t="s">
         <v>9</v>
@@ -24457,7 +24469,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A413" s="4">
         <v>3</v>
       </c>
@@ -24468,10 +24480,10 @@
         <v>2</v>
       </c>
       <c r="D413">
-        <v>29.6</v>
+        <v>30.4</v>
       </c>
       <c r="E413">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F413">
         <v>3.8</v>
@@ -24487,11 +24499,11 @@
       </c>
       <c r="J413">
         <f t="shared" si="18"/>
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K413">
         <f t="shared" si="21"/>
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="L413" s="11" t="s">
         <v>9</v>
@@ -24512,7 +24524,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A414" s="4">
         <v>3</v>
       </c>
@@ -24523,10 +24535,10 @@
         <v>2</v>
       </c>
       <c r="D414">
-        <v>29.6</v>
+        <v>30.4</v>
       </c>
       <c r="E414">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F414">
         <v>3.8</v>
@@ -24542,11 +24554,11 @@
       </c>
       <c r="J414">
         <f t="shared" si="18"/>
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K414">
         <f t="shared" si="21"/>
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="L414" s="11" t="s">
         <v>9</v>
@@ -24567,7 +24579,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A415" s="4">
         <v>3</v>
       </c>
@@ -24578,10 +24590,10 @@
         <v>2</v>
       </c>
       <c r="D415">
-        <v>29.6</v>
+        <v>30.4</v>
       </c>
       <c r="E415">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F415">
         <v>3.8</v>
@@ -24597,11 +24609,11 @@
       </c>
       <c r="J415">
         <f t="shared" si="18"/>
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K415">
         <f t="shared" si="21"/>
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="L415" s="11" t="s">
         <v>9</v>
@@ -24622,7 +24634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A416" s="4">
         <v>3</v>
       </c>
@@ -24633,10 +24645,10 @@
         <v>3</v>
       </c>
       <c r="D416">
-        <v>29.6</v>
+        <v>30.4</v>
       </c>
       <c r="E416">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F416">
         <v>3.8</v>
@@ -24652,11 +24664,11 @@
       </c>
       <c r="J416">
         <f t="shared" si="18"/>
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K416">
         <f t="shared" si="21"/>
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="L416" s="11" t="s">
         <v>9</v>
@@ -24677,7 +24689,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A417" s="4">
         <v>3</v>
       </c>
@@ -24688,10 +24700,10 @@
         <v>3</v>
       </c>
       <c r="D417">
-        <v>29.6</v>
+        <v>30.4</v>
       </c>
       <c r="E417">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F417">
         <v>3.8</v>
@@ -24707,11 +24719,11 @@
       </c>
       <c r="J417">
         <f t="shared" si="18"/>
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K417">
         <f t="shared" si="21"/>
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="L417" s="11" t="s">
         <v>13</v>
@@ -24732,7 +24744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A418" s="4">
         <v>3</v>
       </c>
@@ -24743,10 +24755,10 @@
         <v>3</v>
       </c>
       <c r="D418">
-        <v>29.6</v>
+        <v>30.4</v>
       </c>
       <c r="E418">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F418">
         <v>3.8</v>
@@ -24762,11 +24774,11 @@
       </c>
       <c r="J418">
         <f t="shared" si="18"/>
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K418">
         <f t="shared" si="21"/>
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="L418" s="11" t="s">
         <v>13</v>
@@ -24787,7 +24799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A419" s="4">
         <v>3</v>
       </c>
@@ -24798,10 +24810,10 @@
         <v>3</v>
       </c>
       <c r="D419">
-        <v>29.6</v>
+        <v>30.4</v>
       </c>
       <c r="E419">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F419">
         <v>3.8</v>
@@ -24817,11 +24829,11 @@
       </c>
       <c r="J419">
         <f t="shared" si="18"/>
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K419">
         <f t="shared" si="21"/>
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="L419" s="11" t="s">
         <v>9</v>
@@ -24842,7 +24854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A420" s="4">
         <v>3</v>
       </c>
@@ -24853,10 +24865,10 @@
         <v>4</v>
       </c>
       <c r="D420">
-        <v>29.6</v>
+        <v>30.4</v>
       </c>
       <c r="E420">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F420">
         <v>3.8</v>
@@ -24872,11 +24884,11 @@
       </c>
       <c r="J420">
         <f t="shared" si="18"/>
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K420">
         <f t="shared" si="21"/>
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="L420" s="11" t="s">
         <v>9</v>
@@ -24897,7 +24909,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A421" s="4">
         <v>3</v>
       </c>
@@ -24908,10 +24920,10 @@
         <v>4</v>
       </c>
       <c r="D421">
-        <v>29.6</v>
+        <v>30.4</v>
       </c>
       <c r="E421">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F421">
         <v>3.8</v>
@@ -24927,11 +24939,11 @@
       </c>
       <c r="J421">
         <f t="shared" si="18"/>
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K421">
         <f t="shared" si="21"/>
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="L421" t="s">
         <v>9</v>
@@ -24952,7 +24964,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="422" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="9">
         <v>3</v>
       </c>
@@ -24963,10 +24975,10 @@
         <v>4</v>
       </c>
       <c r="D422" s="7">
-        <v>29.6</v>
+        <v>30.4</v>
       </c>
       <c r="E422" s="7">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F422" s="7">
         <v>3.8</v>
@@ -24982,11 +24994,11 @@
       </c>
       <c r="J422" s="7">
         <f t="shared" si="18"/>
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K422" s="7">
         <f t="shared" si="21"/>
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="L422" s="7" t="s">
         <v>9</v>
@@ -25007,111 +25019,111 @@
         <v>21</v>
       </c>
     </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A423" s="4"/>
       <c r="P423" s="11"/>
       <c r="Q423" s="16"/>
       <c r="R423" s="16"/>
     </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A424" s="4"/>
       <c r="P424" s="11"/>
       <c r="Q424" s="16"/>
     </row>
-    <row r="425" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A425" s="4"/>
       <c r="P425" s="11"/>
       <c r="Q425" s="16"/>
     </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A426" s="4"/>
       <c r="Q426" s="16"/>
     </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A427" s="4"/>
       <c r="Q427" s="16"/>
     </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A428" s="4"/>
       <c r="Q428" s="16"/>
     </row>
-    <row r="429" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A429" s="4"/>
       <c r="Q429" s="16"/>
     </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
       <c r="Q430" s="16"/>
     </row>
-    <row r="431" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
       <c r="Q431" s="16"/>
     </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A432" s="4"/>
       <c r="Q432" s="16"/>
     </row>
-    <row r="433" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A433" s="4"/>
       <c r="Q433" s="16"/>
     </row>
-    <row r="434" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A434" s="4"/>
       <c r="Q434" s="16"/>
     </row>
-    <row r="435" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A435" s="4"/>
       <c r="Q435" s="16"/>
     </row>
-    <row r="436" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A436" s="4"/>
       <c r="Q436" s="16"/>
     </row>
-    <row r="437" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A437" s="4"/>
       <c r="Q437" s="16"/>
     </row>
-    <row r="438" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A438" s="4"/>
       <c r="Q438" s="16"/>
     </row>
-    <row r="439" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A439" s="4"/>
       <c r="Q439" s="16"/>
     </row>
-    <row r="440" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
       <c r="Q440" s="16"/>
     </row>
-    <row r="441" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A441" s="4"/>
       <c r="Q441" s="16"/>
     </row>
-    <row r="442" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A442" s="4"/>
       <c r="Q442" s="16"/>
     </row>
-    <row r="443" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A443" s="4"/>
       <c r="Q443" s="16"/>
     </row>
-    <row r="444" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A444" s="4"/>
       <c r="Q444" s="16"/>
     </row>
-    <row r="445" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A445" s="4"/>
       <c r="Q445" s="16"/>
     </row>
-    <row r="446" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A446" s="4"/>
       <c r="Q446" s="16"/>
     </row>
-    <row r="447" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A447" s="4"/>
       <c r="Q447" s="16"/>
     </row>
-    <row r="448" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A448" s="4"/>
       <c r="Q448" s="16"/>
     </row>
